--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_110.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_110.xlsx
@@ -507,34 +507,34 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>49.00692001095219</v>
+        <v>46.2005116883768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.000462005116883768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9995379948831162</v>
       </c>
       <c r="F2" t="n">
-        <v>64.91523544157755</v>
+        <v>69.45287751385069</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2338213.625032773</v>
+        <v>2371226.935075745</v>
       </c>
       <c r="I2" t="n">
-        <v>47591113.59366578</v>
+        <v>49640536.31571566</v>
       </c>
       <c r="J2" t="n">
-        <v>47.12203847206941</v>
+        <v>44.42356893113153</v>
       </c>
       <c r="K2" t="n">
-        <v>10068.70672950855</v>
+        <v>8798.964035548051</v>
       </c>
       <c r="L2" t="n">
-        <v>507786.1791225467</v>
+        <v>461975.5383174457</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99950.99307998904</v>
+        <v>99953.79948831162</v>
       </c>
       <c r="C3" t="n">
-        <v>51.90641278236354</v>
+        <v>48.71157621430764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.00048734091614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.99951265908386</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94681884253733</v>
+        <v>68.48474882079284</v>
       </c>
       <c r="G3" t="n">
-        <v>96106.72411537408</v>
+        <v>96109.42258491501</v>
       </c>
       <c r="H3" t="n">
-        <v>2238213.625032773</v>
+        <v>2271226.935075745</v>
       </c>
       <c r="I3" t="n">
-        <v>45252899.96863302</v>
+        <v>47269309.3806399</v>
       </c>
       <c r="J3" t="n">
-        <v>47.99039643339823</v>
+        <v>45.03659043482584</v>
       </c>
       <c r="K3" t="n">
-        <v>10021.58469103649</v>
+        <v>8754.540466616918</v>
       </c>
       <c r="L3" t="n">
-        <v>497717.4723930383</v>
+        <v>453176.5742818977</v>
       </c>
     </row>
     <row r="4">
@@ -580,37 +580,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99899.08666720668</v>
+        <v>99905.08791209731</v>
       </c>
       <c r="C4" t="n">
-        <v>55.02050211614402</v>
+        <v>51.39612353697329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0005144495101410129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.999485550489859</v>
       </c>
       <c r="F4" t="n">
-        <v>62.97978507754947</v>
+        <v>67.51789672489664</v>
       </c>
       <c r="G4" t="n">
-        <v>92362.32125296473</v>
+        <v>92367.86974121421</v>
       </c>
       <c r="H4" t="n">
-        <v>2142106.900917399</v>
+        <v>2175117.51249083</v>
       </c>
       <c r="I4" t="n">
-        <v>43014686.34360024</v>
+        <v>44998082.44556417</v>
       </c>
       <c r="J4" t="n">
-        <v>48.91302603349738</v>
+        <v>45.69096667416974</v>
       </c>
       <c r="K4" t="n">
-        <v>9973.594294603086</v>
+        <v>8709.503876182094</v>
       </c>
       <c r="L4" t="n">
-        <v>487695.8877020017</v>
+        <v>444422.0338152808</v>
       </c>
     </row>
     <row r="5">
@@ -618,37 +618,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99844.06616509054</v>
+        <v>99853.69178856033</v>
       </c>
       <c r="C5" t="n">
-        <v>58.36485282003648</v>
+        <v>54.26597723556107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0005434548914873272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9994565451085127</v>
       </c>
       <c r="F5" t="n">
-        <v>62.01421545763225</v>
+        <v>66.55239179500938</v>
       </c>
       <c r="G5" t="n">
-        <v>88761.01125566337</v>
+        <v>88769.56839987794</v>
       </c>
       <c r="H5" t="n">
-        <v>2049744.579664434</v>
+        <v>2082749.642749615</v>
       </c>
       <c r="I5" t="n">
-        <v>40872579.44268284</v>
+        <v>42822964.93307333</v>
       </c>
       <c r="J5" t="n">
-        <v>49.89052079940027</v>
+        <v>46.38678477128128</v>
       </c>
       <c r="K5" t="n">
-        <v>9924.68126856959</v>
+        <v>8663.812909507922</v>
       </c>
       <c r="L5" t="n">
-        <v>477722.2934073986</v>
+        <v>435712.5299390987</v>
       </c>
     </row>
     <row r="6">
@@ -656,37 +656,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99785.7013122705</v>
+        <v>99799.42581132478</v>
       </c>
       <c r="C6" t="n">
-        <v>61.95624008843515</v>
+        <v>57.33374392484049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0005744897173379782</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.999425510282662</v>
       </c>
       <c r="F6" t="n">
-        <v>61.05019524315571</v>
+        <v>65.58830780915839</v>
       </c>
       <c r="G6" t="n">
-        <v>85297.2356865692</v>
+        <v>85308.96744588058</v>
       </c>
       <c r="H6" t="n">
-        <v>1960983.56840877</v>
+        <v>1993980.074349738</v>
       </c>
       <c r="I6" t="n">
-        <v>38822834.8630184</v>
+        <v>40740215.29032373</v>
       </c>
       <c r="J6" t="n">
-        <v>50.92351316157525</v>
+        <v>47.12415826382568</v>
       </c>
       <c r="K6" t="n">
-        <v>9874.79074777019</v>
+        <v>8617.426124736641</v>
       </c>
       <c r="L6" t="n">
-        <v>467797.6121388291</v>
+        <v>427048.7170295908</v>
       </c>
     </row>
     <row r="7">
@@ -694,37 +694,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99723.74507218206</v>
+        <v>99742.09206739994</v>
       </c>
       <c r="C7" t="n">
-        <v>65.81262301335532</v>
+        <v>60.61286177990573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0006076959137667481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9993923040862333</v>
       </c>
       <c r="F7" t="n">
-        <v>60.08781379058562</v>
+        <v>64.62572186670504</v>
       </c>
       <c r="G7" t="n">
-        <v>81965.64926238573</v>
+        <v>81980.72915508288</v>
       </c>
       <c r="H7" t="n">
-        <v>1875686.332722201</v>
+        <v>1908671.106903857</v>
       </c>
       <c r="I7" t="n">
-        <v>36861851.29460963</v>
+        <v>38746235.21597398</v>
       </c>
       <c r="J7" t="n">
-        <v>52.01267194385677</v>
+        <v>47.90322511073306</v>
       </c>
       <c r="K7" t="n">
-        <v>9823.867234608613</v>
+        <v>8570.301966472814</v>
       </c>
       <c r="L7" t="n">
-        <v>457922.8213910588</v>
+        <v>418431.2909048541</v>
       </c>
     </row>
     <row r="8">
@@ -732,37 +732,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99657.93244916871</v>
+        <v>99681.47920562002</v>
       </c>
       <c r="C8" t="n">
-        <v>69.95322212839608</v>
+        <v>64.11765157077124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.000643225322113361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9993567746778866</v>
       </c>
       <c r="F8" t="n">
-        <v>59.12716470053141</v>
+        <v>63.66471450151562</v>
       </c>
       <c r="G8" t="n">
-        <v>78761.11161881164</v>
+        <v>78779.72096246894</v>
       </c>
       <c r="H8" t="n">
-        <v>1793720.683459816</v>
+        <v>1826690.377748774</v>
       </c>
       <c r="I8" t="n">
-        <v>34986164.96188743</v>
+        <v>36837564.10907013</v>
       </c>
       <c r="J8" t="n">
-        <v>53.15869958624891</v>
+        <v>48.7241455693123</v>
       </c>
       <c r="K8" t="n">
-        <v>9771.854562664756</v>
+        <v>8522.398741362083</v>
       </c>
       <c r="L8" t="n">
-        <v>448098.9541564502</v>
+        <v>409860.9889383814</v>
       </c>
     </row>
     <row r="9">
@@ -770,37 +770,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99587.97922704031</v>
+        <v>99617.36155404925</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39860106511503</v>
+        <v>67.86337025757881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0006812403902181074</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9993187596097819</v>
       </c>
       <c r="F9" t="n">
-        <v>58.16834596665295</v>
+        <v>62.70536979586186</v>
       </c>
       <c r="G9" t="n">
-        <v>75678.67939542494</v>
+        <v>75701.00754911237</v>
       </c>
       <c r="H9" t="n">
-        <v>1714959.571841004</v>
+        <v>1747910.656786305</v>
       </c>
       <c r="I9" t="n">
-        <v>33192444.27842761</v>
+        <v>35010873.73132135</v>
       </c>
       <c r="J9" t="n">
-        <v>54.3623290641297</v>
+        <v>49.58709992563578</v>
       </c>
       <c r="K9" t="n">
-        <v>9718.695863078508</v>
+        <v>8473.674595792772</v>
       </c>
       <c r="L9" t="n">
-        <v>438327.0995937855</v>
+        <v>401338.5901970193</v>
       </c>
     </row>
     <row r="10">
@@ -808,37 +808,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99513.5806259752</v>
+        <v>99549.49818379167</v>
       </c>
       <c r="C10" t="n">
-        <v>79.17075237488798</v>
+        <v>71.86626718468067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.0007219149116352019</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9992780850883648</v>
       </c>
       <c r="F10" t="n">
-        <v>57.21146012492832</v>
+        <v>61.74777549473009</v>
       </c>
       <c r="G10" t="n">
-        <v>72713.59862807524</v>
+        <v>72739.84323575933</v>
       </c>
       <c r="H10" t="n">
-        <v>1639280.892445579</v>
+        <v>1672209.649237193</v>
       </c>
       <c r="I10" t="n">
-        <v>31477484.70658661</v>
+        <v>33262963.07453505</v>
       </c>
       <c r="J10" t="n">
-        <v>55.62432046439247</v>
+        <v>50.4922860595208</v>
       </c>
       <c r="K10" t="n">
-        <v>9664.333534014379</v>
+        <v>8424.087495867136</v>
       </c>
       <c r="L10" t="n">
-        <v>428608.403730707</v>
+        <v>392864.9156012264</v>
       </c>
     </row>
     <row r="11">
@@ -846,37 +846,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99434.40987360031</v>
+        <v>99477.63191660699</v>
       </c>
       <c r="C11" t="n">
-        <v>84.29318753489261</v>
+        <v>76.14364289419774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0007654348161205693</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9992345651838794</v>
       </c>
       <c r="F11" t="n">
-        <v>56.25661440272891</v>
+        <v>60.79202312018484</v>
       </c>
       <c r="G11" t="n">
-        <v>69861.29743730025</v>
+        <v>69891.66467140136</v>
       </c>
       <c r="H11" t="n">
-        <v>1566567.293817504</v>
+        <v>1599469.806001433</v>
       </c>
       <c r="I11" t="n">
-        <v>29838203.81414103</v>
+        <v>31590753.42529785</v>
       </c>
       <c r="J11" t="n">
-        <v>56.94545717468687</v>
+        <v>51.4399168231871</v>
       </c>
       <c r="K11" t="n">
-        <v>9608.709213549986</v>
+        <v>8373.595209807616</v>
       </c>
       <c r="L11" t="n">
-        <v>418944.0701966927</v>
+        <v>384440.8281053593</v>
       </c>
     </row>
     <row r="12">
@@ -884,37 +884,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99350.11668606542</v>
+        <v>99401.48827371279</v>
       </c>
       <c r="C12" t="n">
-        <v>89.79103111581155</v>
+        <v>80.71391055945219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0008119990149161316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9991880009850839</v>
       </c>
       <c r="F12" t="n">
-        <v>55.30392086708879</v>
+        <v>59.83820808539573</v>
       </c>
       <c r="G12" t="n">
-        <v>67117.37900176785</v>
+        <v>67152.08380567812</v>
       </c>
       <c r="H12" t="n">
-        <v>1496705.996380203</v>
+        <v>1529578.141330032</v>
       </c>
       <c r="I12" t="n">
-        <v>28271636.52032352</v>
+        <v>29991283.61929642</v>
       </c>
       <c r="J12" t="n">
-        <v>58.3265416382352</v>
+        <v>52.4302172113232</v>
       </c>
       <c r="K12" t="n">
-        <v>9551.7637563753</v>
+        <v>8322.155292984427</v>
       </c>
       <c r="L12" t="n">
-        <v>409335.3609831426</v>
+        <v>376067.2328955517</v>
       </c>
     </row>
     <row r="13">
@@ -922,37 +922,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99260.32565494961</v>
+        <v>99320.77436315334</v>
       </c>
       <c r="C13" t="n">
-        <v>95.69111903743399</v>
+        <v>85.59666001380383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0008618203045903661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9991381796954096</v>
       </c>
       <c r="F13" t="n">
-        <v>54.35349657149412</v>
+        <v>58.88642980789914</v>
       </c>
       <c r="G13" t="n">
-        <v>64477.61480621547</v>
+        <v>64516.88113440224</v>
       </c>
       <c r="H13" t="n">
-        <v>1429588.617378436</v>
+        <v>1462426.057524354</v>
       </c>
       <c r="I13" t="n">
-        <v>26774930.52394332</v>
+        <v>28461705.47796639</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76839062179605</v>
+        <v>53.46342129852979</v>
       </c>
       <c r="K13" t="n">
-        <v>9493.437214737065</v>
+        <v>8269.725075773104</v>
       </c>
       <c r="L13" t="n">
-        <v>399783.5972267673</v>
+        <v>367745.0776025673</v>
       </c>
     </row>
     <row r="14">
@@ -960,37 +960,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99164.63453591218</v>
+        <v>99235.17770313953</v>
       </c>
       <c r="C14" t="n">
-        <v>102.0221007768414</v>
+        <v>90.81272431993236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0009151263334419291</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9990848736665581</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40546370045216</v>
+        <v>57.93679182162614</v>
       </c>
       <c r="G14" t="n">
-        <v>61937.93815381615</v>
+        <v>61981.99920793439</v>
       </c>
       <c r="H14" t="n">
-        <v>1365111.00257222</v>
+        <v>1397909.176389952</v>
       </c>
       <c r="I14" t="n">
-        <v>25345341.90656488</v>
+        <v>26999279.42044204</v>
       </c>
       <c r="J14" t="n">
-        <v>61.27182993959153</v>
+        <v>54.53976891784379</v>
       </c>
       <c r="K14" t="n">
-        <v>9433.668824115268</v>
+        <v>8216.261654474574</v>
       </c>
       <c r="L14" t="n">
-        <v>390290.1600120303</v>
+        <v>359475.3525267942</v>
       </c>
     </row>
     <row r="15">
@@ -998,37 +998,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99062.61243513534</v>
+        <v>99144.36497881961</v>
       </c>
       <c r="C15" t="n">
-        <v>108.8145453199246</v>
+        <v>96.38424878942273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.0009721606347472544</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9990278393652527</v>
       </c>
       <c r="F15" t="n">
-        <v>52.45994971103286</v>
+        <v>56.98940188718693</v>
       </c>
       <c r="G15" t="n">
-        <v>59494.43793334516</v>
+        <v>59543.53639255752</v>
       </c>
       <c r="H15" t="n">
-        <v>1303173.064418404</v>
+        <v>1335927.177182018</v>
       </c>
       <c r="I15" t="n">
-        <v>23980230.90399267</v>
+        <v>25601370.24405208</v>
       </c>
       <c r="J15" t="n">
-        <v>62.83768857084058</v>
+        <v>55.65950205238939</v>
       </c>
       <c r="K15" t="n">
-        <v>9372.396994175675</v>
+        <v>8161.721885556733</v>
       </c>
       <c r="L15" t="n">
-        <v>380856.4911879149</v>
+        <v>351259.0908723196</v>
       </c>
     </row>
     <row r="16">
@@ -1036,37 +1036,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98953.79788981541</v>
+        <v>99047.98073003018</v>
       </c>
       <c r="C16" t="n">
-        <v>116.1010505579682</v>
+        <v>102.3347623195129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.001033183731412368</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9989668162685876</v>
       </c>
       <c r="F16" t="n">
-        <v>51.51708747050468</v>
+        <v>56.04437209985892</v>
       </c>
       <c r="G16" t="n">
-        <v>57143.35263195334</v>
+        <v>57197.74087540676</v>
       </c>
       <c r="H16" t="n">
-        <v>1243678.626485059</v>
+        <v>1276383.64078946</v>
       </c>
       <c r="I16" t="n">
-        <v>22677057.83957426</v>
+        <v>24265443.06687006</v>
       </c>
       <c r="J16" t="n">
-        <v>64.46679210255894</v>
+        <v>56.82286090962548</v>
       </c>
       <c r="K16" t="n">
-        <v>9309.559305604835</v>
+        <v>8106.062383504343</v>
       </c>
       <c r="L16" t="n">
-        <v>371484.0941937393</v>
+        <v>343097.3689867629</v>
       </c>
     </row>
     <row r="17">
@@ -1074,37 +1074,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98837.69683925745</v>
+        <v>98945.64596771066</v>
       </c>
       <c r="C17" t="n">
-        <v>123.9163557265999</v>
+        <v>108.6892508640192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.001098474316894027</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.998901525683106</v>
       </c>
       <c r="F17" t="n">
-        <v>50.57701538911419</v>
+        <v>55.10181899468115</v>
       </c>
       <c r="G17" t="n">
-        <v>54881.06458477566</v>
+        <v>54941.00490390457</v>
       </c>
       <c r="H17" t="n">
-        <v>1186535.273853105</v>
+        <v>1219185.899914053</v>
       </c>
       <c r="I17" t="n">
-        <v>21433379.21308921</v>
+        <v>22989059.42608061</v>
       </c>
       <c r="J17" t="n">
-        <v>66.15995542362661</v>
+        <v>58.03007964546918</v>
       </c>
       <c r="K17" t="n">
-        <v>9245.092513502277</v>
+        <v>8049.239522594717</v>
       </c>
       <c r="L17" t="n">
-        <v>362174.5348881345</v>
+        <v>334991.3066032585</v>
       </c>
     </row>
     <row r="18">
@@ -1112,37 +1112,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98713.78048353085</v>
+        <v>98836.95671684665</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2974563594035</v>
+        <v>115.4742327969516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.001168330517579252</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9988316694824207</v>
       </c>
       <c r="F18" t="n">
-        <v>49.63987754698402</v>
+        <v>54.16186364801205</v>
       </c>
       <c r="G18" t="n">
-        <v>52704.0944530145</v>
+        <v>52769.85925103199</v>
       </c>
       <c r="H18" t="n">
-        <v>1131654.20926833</v>
+        <v>1164244.895010148</v>
       </c>
       <c r="I18" t="n">
-        <v>20246843.9392361</v>
+        <v>21769873.52616655</v>
       </c>
       <c r="J18" t="n">
-        <v>67.91797458915985</v>
+        <v>59.28138170321395</v>
       </c>
       <c r="K18" t="n">
-        <v>9178.93255807865</v>
+        <v>7991.209442949249</v>
       </c>
       <c r="L18" t="n">
-        <v>352929.4423746322</v>
+        <v>326942.0670806637</v>
       </c>
     </row>
     <row r="19">
@@ -1150,37 +1150,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98581.48302717145</v>
+        <v>98721.48248404969</v>
       </c>
       <c r="C19" t="n">
-        <v>141.2837210832127</v>
+        <v>122.7178358578939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.00124307124214551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.9987569287578545</v>
       </c>
       <c r="F19" t="n">
-        <v>48.70582381402777</v>
+        <v>53.22463177486033</v>
       </c>
       <c r="G19" t="n">
-        <v>50609.09592254017</v>
+        <v>50680.96789813523</v>
       </c>
       <c r="H19" t="n">
-        <v>1078950.114815315</v>
+        <v>1111475.035759117</v>
       </c>
       <c r="I19" t="n">
-        <v>19115189.72996777</v>
+        <v>20605628.6311564</v>
       </c>
       <c r="J19" t="n">
-        <v>69.74161776779331</v>
+        <v>60.5769747291074</v>
       </c>
       <c r="K19" t="n">
-        <v>9111.01458348949</v>
+        <v>7931.928061246034</v>
       </c>
       <c r="L19" t="n">
-        <v>343750.5098165536</v>
+        <v>318950.8576377145</v>
       </c>
     </row>
     <row r="20">
@@ -1188,37 +1188,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98440.19930608824</v>
+        <v>98598.76464819179</v>
       </c>
       <c r="C20" t="n">
-        <v>150.9170094103234</v>
+        <v>130.4498752893032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.001323037623795376</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9986769623762046</v>
       </c>
       <c r="F20" t="n">
-        <v>47.77500996170258</v>
+        <v>52.29025382125108</v>
       </c>
       <c r="G20" t="n">
-        <v>48592.8506154439</v>
+        <v>48671.122927324</v>
       </c>
       <c r="H20" t="n">
-        <v>1028341.018892775</v>
+        <v>1060794.067860981</v>
       </c>
       <c r="I20" t="n">
-        <v>18036239.61515245</v>
+        <v>19494153.59539729</v>
       </c>
       <c r="J20" t="n">
-        <v>71.63161517679346</v>
+        <v>61.91704502424938</v>
       </c>
       <c r="K20" t="n">
-        <v>9041.272965721697</v>
+        <v>7871.351086516927</v>
       </c>
       <c r="L20" t="n">
-        <v>334639.4952330641</v>
+        <v>311018.9295764685</v>
       </c>
     </row>
     <row r="21">
@@ -1226,37 +1226,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98289.28229667792</v>
+        <v>98468.31477290249</v>
       </c>
       <c r="C21" t="n">
-        <v>161.2417894842527</v>
+        <v>138.7019326825395</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.001408594561635668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9985914054383643</v>
       </c>
       <c r="F21" t="n">
-        <v>46.84759776534253</v>
+        <v>51.35886505084067</v>
       </c>
       <c r="G21" t="n">
-        <v>46652.26320736542</v>
+        <v>46737.23961586421</v>
       </c>
       <c r="H21" t="n">
-        <v>979748.1682773312</v>
+        <v>1012122.944933657</v>
       </c>
       <c r="I21" t="n">
-        <v>17007898.59625968</v>
+        <v>18433359.52753631</v>
       </c>
       <c r="J21" t="n">
-        <v>73.58864790274964</v>
+        <v>63.30175148920135</v>
       </c>
       <c r="K21" t="n">
-        <v>8969.641350544904</v>
+        <v>7809.434041492677</v>
       </c>
       <c r="L21" t="n">
-        <v>325598.2222673423</v>
+        <v>303147.5784899516</v>
       </c>
     </row>
     <row r="22">
@@ -1264,37 +1264,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98128.04050719367</v>
+        <v>98329.61284021995</v>
       </c>
       <c r="C22" t="n">
-        <v>172.3052545031633</v>
+        <v>147.5074349426401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.001500132367879159</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9984998676321208</v>
       </c>
       <c r="F22" t="n">
-        <v>45.92375509573812</v>
+        <v>50.43060562494478</v>
       </c>
       <c r="G22" t="n">
-        <v>44784.35674379476</v>
+        <v>44876.3517253033</v>
       </c>
       <c r="H22" t="n">
-        <v>933095.9050699659</v>
+        <v>965385.7053177932</v>
       </c>
       <c r="I22" t="n">
-        <v>16028150.42798235</v>
+        <v>17421236.58260265</v>
       </c>
       <c r="J22" t="n">
-        <v>75.61333549724523</v>
+        <v>64.7312190148627</v>
       </c>
       <c r="K22" t="n">
-        <v>8896.052702642153</v>
+        <v>7746.132290003476</v>
       </c>
       <c r="L22" t="n">
-        <v>316628.5809167974</v>
+        <v>295338.144448459</v>
       </c>
     </row>
     <row r="23">
@@ -1302,37 +1302,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97955.7352526905</v>
+        <v>98182.10540527731</v>
       </c>
       <c r="C23" t="n">
-        <v>184.1574362774502</v>
+        <v>156.9017326587981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.001598068527978058</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9984019314720219</v>
       </c>
       <c r="F23" t="n">
-        <v>45.0036559985497</v>
+        <v>49.50562067509538</v>
       </c>
       <c r="G23" t="n">
-        <v>42986.26814892079</v>
+        <v>43085.60697839215</v>
       </c>
       <c r="H23" t="n">
-        <v>888311.548326171</v>
+        <v>920509.3535924898</v>
       </c>
       <c r="I23" t="n">
-        <v>15095054.52291238</v>
+        <v>16455850.87728486</v>
       </c>
       <c r="J23" t="n">
-        <v>77.70622222903515</v>
+        <v>66.20553127019259</v>
       </c>
       <c r="K23" t="n">
-        <v>8820.439367144909</v>
+        <v>7681.401070988613</v>
       </c>
       <c r="L23" t="n">
-        <v>307732.5282141553</v>
+        <v>287592.0121584555</v>
       </c>
     </row>
     <row r="24">
@@ -1340,37 +1340,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97771.57781641305</v>
+        <v>98025.20367261852</v>
       </c>
       <c r="C24" t="n">
-        <v>196.8513140686087</v>
+        <v>166.9221770261364</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.001702849581252774</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9982971504187472</v>
       </c>
       <c r="F24" t="n">
-        <v>44.08748076006734</v>
+        <v>48.58406036719357</v>
       </c>
       <c r="G24" t="n">
-        <v>41255.24392096403</v>
+        <v>41362.2627171838</v>
       </c>
       <c r="H24" t="n">
-        <v>845325.2801772503</v>
+        <v>877423.7466140976</v>
       </c>
       <c r="I24" t="n">
-        <v>14206742.97458621</v>
+        <v>15535341.52369237</v>
       </c>
       <c r="J24" t="n">
-        <v>79.86776186586435</v>
+        <v>67.72472283425353</v>
       </c>
       <c r="K24" t="n">
-        <v>8742.733144915872</v>
+        <v>7615.19553971842</v>
       </c>
       <c r="L24" t="n">
-        <v>298912.0888470104</v>
+        <v>279910.6110874669</v>
       </c>
     </row>
     <row r="25">
@@ -1378,37 +1378,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97574.72650234443</v>
+        <v>97858.28149559238</v>
       </c>
       <c r="C25" t="n">
-        <v>210.442916500937</v>
+        <v>177.6081943021936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.001814953130054642</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9981850468699454</v>
       </c>
       <c r="F25" t="n">
-        <v>43.17541595775763</v>
+        <v>47.66607995627771</v>
       </c>
       <c r="G25" t="n">
-        <v>39588.63600829185</v>
+        <v>39703.68173599632</v>
       </c>
       <c r="H25" t="n">
-        <v>804070.0362562863</v>
+        <v>836061.4838969139</v>
       </c>
       <c r="I25" t="n">
-        <v>13361417.69440896</v>
+        <v>14657917.77707827</v>
       </c>
       <c r="J25" t="n">
-        <v>82.09830085062249</v>
+        <v>69.28877061676906</v>
       </c>
       <c r="K25" t="n">
-        <v>8662.865383050008</v>
+        <v>7547.470816884166</v>
       </c>
       <c r="L25" t="n">
-        <v>290169.3557020945</v>
+        <v>272295.4155477484</v>
       </c>
     </row>
     <row r="26">
@@ -1416,37 +1416,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97364.2835858435</v>
+        <v>97680.67330129018</v>
       </c>
       <c r="C26" t="n">
-        <v>224.9914139311025</v>
+        <v>189.0013565980956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.001934889986017319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9980651100139827</v>
       </c>
       <c r="F26" t="n">
-        <v>42.2676544939671</v>
+        <v>46.75183983087961</v>
       </c>
       <c r="G26" t="n">
-        <v>37983.89786096846</v>
+        <v>38107.32828322584</v>
       </c>
       <c r="H26" t="n">
-        <v>764481.4002479945</v>
+        <v>796357.8021609175</v>
       </c>
       <c r="I26" t="n">
-        <v>12557347.65815268</v>
+        <v>13821856.29318136</v>
       </c>
       <c r="J26" t="n">
-        <v>84.39805972843303</v>
+        <v>70.89758450873866</v>
       </c>
       <c r="K26" t="n">
-        <v>8580.767082199385</v>
+        <v>7478.182046267399</v>
       </c>
       <c r="L26" t="n">
-        <v>281506.4903190445</v>
+        <v>264747.9447308642</v>
       </c>
     </row>
     <row r="27">
@@ -1454,37 +1454,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97139.2921719124</v>
+        <v>97491.67194469209</v>
       </c>
       <c r="C27" t="n">
-        <v>240.5591981962598</v>
+        <v>201.1454475937747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.002063206462474931</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9979367935375251</v>
       </c>
       <c r="F27" t="n">
-        <v>41.36439561108942</v>
+        <v>45.84150554589733</v>
       </c>
       <c r="G27" t="n">
-        <v>36438.58065274124</v>
+        <v>36570.76422628534</v>
       </c>
       <c r="H27" t="n">
-        <v>726497.5023870259</v>
+        <v>758250.4738776918</v>
       </c>
       <c r="I27" t="n">
-        <v>11792866.25790468</v>
+        <v>13025498.49102044</v>
       </c>
       <c r="J27" t="n">
-        <v>86.76711267322919</v>
+        <v>72.5509972012682</v>
       </c>
       <c r="K27" t="n">
-        <v>8496.369022470953</v>
+        <v>7407.284461758661</v>
       </c>
       <c r="L27" t="n">
-        <v>272925.7232368452</v>
+        <v>257269.7626845969</v>
       </c>
     </row>
     <row r="28">
@@ -1492,37 +1492,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96898.73297371613</v>
+        <v>97290.52649709831</v>
       </c>
       <c r="C28" t="n">
-        <v>257.2119461341318</v>
+        <v>214.0865215298828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.002200486822694581</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9977995131773054</v>
       </c>
       <c r="F28" t="n">
-        <v>40.4658448864442</v>
+        <v>44.93524784287089</v>
       </c>
       <c r="G28" t="n">
-        <v>34950.32966880873</v>
+        <v>35091.64537422693</v>
       </c>
       <c r="H28" t="n">
-        <v>690058.9217342847</v>
+        <v>721679.7096514065</v>
       </c>
       <c r="I28" t="n">
-        <v>11066368.75551765</v>
+        <v>12267248.01714275</v>
       </c>
       <c r="J28" t="n">
-        <v>89.20536495502421</v>
+        <v>74.24875310832461</v>
       </c>
       <c r="K28" t="n">
-        <v>8409.601909797726</v>
+        <v>7334.733464557391</v>
       </c>
       <c r="L28" t="n">
-        <v>264429.3542143742</v>
+        <v>249862.4782228382</v>
       </c>
     </row>
     <row r="29">
@@ -1530,37 +1530,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96641.521027582</v>
+        <v>97076.43997556843</v>
       </c>
       <c r="C29" t="n">
-        <v>275.0186626715865</v>
+        <v>227.8729535605171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.00234735589415791</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9976526441058421</v>
       </c>
       <c r="F29" t="n">
-        <v>39.57221420506453</v>
+        <v>44.03324265650838</v>
       </c>
       <c r="G29" t="n">
-        <v>33516.88085505336</v>
+        <v>33667.71795287911</v>
       </c>
       <c r="H29" t="n">
-        <v>655108.592065476</v>
+        <v>686588.0642771795</v>
       </c>
       <c r="I29" t="n">
-        <v>10376309.83378337</v>
+        <v>11545568.30749134</v>
       </c>
       <c r="J29" t="n">
-        <v>91.71252818254203</v>
+        <v>75.99049632647774</v>
       </c>
       <c r="K29" t="n">
-        <v>8320.396544842702</v>
+        <v>7260.484711449067</v>
       </c>
       <c r="L29" t="n">
-        <v>256019.7523045764</v>
+        <v>242527.7447582808</v>
       </c>
     </row>
     <row r="30">
@@ -1568,37 +1568,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96366.50236491041</v>
+        <v>96848.5670220079</v>
       </c>
       <c r="C30" t="n">
-        <v>294.0516986056635</v>
+        <v>242.5554792491156</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.002504481859747054</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9974955181402529</v>
       </c>
       <c r="F30" t="n">
-        <v>38.68372170854956</v>
+        <v>43.13567110627524</v>
       </c>
       <c r="G30" t="n">
-        <v>32136.05752475338</v>
+        <v>32296.81522759574</v>
       </c>
       <c r="H30" t="n">
-        <v>621591.7112104227</v>
+        <v>652920.3463243003</v>
       </c>
       <c r="I30" t="n">
-        <v>9721201.241717894</v>
+        <v>10858980.24321416</v>
       </c>
       <c r="J30" t="n">
-        <v>94.28809315059651</v>
+        <v>77.77575756261147</v>
       </c>
       <c r="K30" t="n">
-        <v>8228.68401666016</v>
+        <v>7184.494215122589</v>
       </c>
       <c r="L30" t="n">
-        <v>247699.3557597337</v>
+        <v>235267.2600468317</v>
       </c>
     </row>
     <row r="31">
@@ -1606,37 +1606,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96072.45066630475</v>
+        <v>96606.01154275879</v>
       </c>
       <c r="C31" t="n">
-        <v>314.3867374461265</v>
+        <v>258.1872206515546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.002672579237341544</v>
       </c>
       <c r="E31" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9973274207626585</v>
       </c>
       <c r="F31" t="n">
-        <v>37.80059171810603</v>
+        <v>42.24271947182869</v>
       </c>
       <c r="G31" t="n">
-        <v>30805.76721911227</v>
+        <v>30976.85426897175</v>
       </c>
       <c r="H31" t="n">
-        <v>589455.6536856692</v>
+        <v>620623.5310967047</v>
       </c>
       <c r="I31" t="n">
-        <v>9099609.530507471</v>
+        <v>10206059.89688986</v>
       </c>
       <c r="J31" t="n">
-        <v>96.931300117899</v>
+        <v>79.60393995904677</v>
       </c>
       <c r="K31" t="n">
-        <v>8134.395923509561</v>
+        <v>7106.718457559978</v>
       </c>
       <c r="L31" t="n">
-        <v>239470.6717430735</v>
+        <v>228082.7658317092</v>
       </c>
     </row>
     <row r="32">
@@ -1644,37 +1644,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95758.06392885862</v>
+        <v>96347.82432210723</v>
       </c>
       <c r="C32" t="n">
-        <v>336.1027448465826</v>
+        <v>274.8236960518864</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.002852412060007747</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9971475879399923</v>
       </c>
       <c r="F32" t="n">
-        <v>36.92305462988521</v>
+        <v>41.35457915105547</v>
       </c>
       <c r="G32" t="n">
-        <v>29523.99871825928</v>
+        <v>29705.83285712917</v>
       </c>
       <c r="H32" t="n">
-        <v>558649.8864665569</v>
+        <v>589646.6768277328</v>
       </c>
       <c r="I32" t="n">
-        <v>8510153.876821801</v>
+        <v>9585436.365793157</v>
       </c>
       <c r="J32" t="n">
-        <v>99.64110633971977</v>
+        <v>81.4743037444708</v>
       </c>
       <c r="K32" t="n">
-        <v>8037.464623391663</v>
+        <v>7027.11451760093</v>
       </c>
       <c r="L32" t="n">
-        <v>231336.275819564</v>
+        <v>220976.0473741492</v>
       </c>
     </row>
     <row r="33">
@@ -1682,37 +1682,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95421.96118401205</v>
+        <v>96073.00062605535</v>
       </c>
       <c r="C33" t="n">
-        <v>359.2818732151223</v>
+        <v>292.5228099958998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.003044797269677102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9969552027303229</v>
       </c>
       <c r="F33" t="n">
-        <v>36.05134678071612</v>
+        <v>40.47144659945171</v>
       </c>
       <c r="G33" t="n">
-        <v>28288.81919967882</v>
+        <v>28481.82652041819</v>
       </c>
       <c r="H33" t="n">
-        <v>529125.8877482978</v>
+        <v>559940.8439706038</v>
       </c>
       <c r="I33" t="n">
-        <v>7951503.990355246</v>
+        <v>8995789.688965425</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4161506811036</v>
+        <v>83.38594963921747</v>
       </c>
       <c r="K33" t="n">
-        <v>7937.823517051942</v>
+        <v>6945.64021385646</v>
       </c>
       <c r="L33" t="n">
-        <v>223298.8111961723</v>
+        <v>213948.9328565482</v>
       </c>
     </row>
     <row r="34">
@@ -1720,37 +1720,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95062.67931079693</v>
+        <v>95780.47781605944</v>
       </c>
       <c r="C34" t="n">
-        <v>384.0093130637121</v>
+        <v>311.3448198008236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.003250608337940664</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9967493916620593</v>
       </c>
       <c r="F34" t="n">
-        <v>35.18571028234789</v>
+        <v>39.59352324957375</v>
       </c>
       <c r="G34" t="n">
-        <v>27098.37154131776</v>
+        <v>27302.98570460904</v>
       </c>
       <c r="H34" t="n">
-        <v>500837.068548619</v>
+        <v>531459.0174501854</v>
       </c>
       <c r="I34" t="n">
-        <v>7422378.102606946</v>
+        <v>8435848.844994821</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2547151417342</v>
+        <v>85.33780094430469</v>
       </c>
       <c r="K34" t="n">
-        <v>7835.407366370837</v>
+        <v>6862.254264217243</v>
       </c>
       <c r="L34" t="n">
-        <v>215360.9876791204</v>
+        <v>207003.2926426918</v>
       </c>
     </row>
     <row r="35">
@@ -1758,37 +1758,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94678.66999773322</v>
+        <v>95469.13299625862</v>
       </c>
       <c r="C35" t="n">
-        <v>410.3730815235289</v>
+        <v>331.3522742059463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.003470779128359025</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.996529220871641</v>
       </c>
       <c r="F35" t="n">
-        <v>34.32639282234312</v>
+        <v>38.72101540928568</v>
       </c>
       <c r="G35" t="n">
-        <v>25950.87176689457</v>
+        <v>26167.53306887208</v>
       </c>
       <c r="H35" t="n">
-        <v>473738.6970073012</v>
+        <v>504156.0317455765</v>
       </c>
       <c r="I35" t="n">
-        <v>6921541.034058328</v>
+        <v>7904389.827544634</v>
       </c>
       <c r="J35" t="n">
-        <v>108.1546831332174</v>
+        <v>87.32858424623633</v>
       </c>
       <c r="K35" t="n">
-        <v>7730.152651229104</v>
+        <v>6776.916463272938</v>
       </c>
       <c r="L35" t="n">
-        <v>207525.5803127495</v>
+        <v>200141.0383784745</v>
       </c>
     </row>
     <row r="36">
@@ -1796,37 +1796,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94268.29691620969</v>
+        <v>95137.78072205267</v>
       </c>
       <c r="C36" t="n">
-        <v>438.4637372224547</v>
+        <v>352.6099192646681</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.003706308015475224</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9962936919845248</v>
       </c>
       <c r="F36" t="n">
-        <v>33.47364742981384</v>
+        <v>37.85413413753652</v>
       </c>
       <c r="G36" t="n">
-        <v>24844.60663118848</v>
+        <v>25073.76090505384</v>
       </c>
       <c r="H36" t="n">
-        <v>447787.8252404067</v>
+        <v>477988.4986767044</v>
       </c>
       <c r="I36" t="n">
-        <v>6447802.337051026</v>
+        <v>7400233.795799057</v>
       </c>
       <c r="J36" t="n">
-        <v>111.1134943650752</v>
+        <v>89.35680867356761</v>
       </c>
       <c r="K36" t="n">
-        <v>7621.997968095886</v>
+        <v>6689.587879026702</v>
       </c>
       <c r="L36" t="n">
-        <v>199795.4276615204</v>
+        <v>193364.1219152016</v>
       </c>
     </row>
     <row r="37">
@@ -1834,37 +1834,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>93829.83317898723</v>
+        <v>94785.17080278801</v>
       </c>
       <c r="C37" t="n">
-        <v>468.3740093939981</v>
+        <v>375.1845659639662</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.003958262276538838</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9960417377234612</v>
       </c>
       <c r="F37" t="n">
-        <v>32.62773220426242</v>
+        <v>36.99309509641734</v>
       </c>
       <c r="G37" t="n">
-        <v>23777.93134331615</v>
+        <v>24020.02867695512</v>
       </c>
       <c r="H37" t="n">
-        <v>422943.2186092181</v>
+        <v>452914.7377716505</v>
       </c>
       <c r="I37" t="n">
-        <v>6000014.511810619</v>
+        <v>6922245.297122354</v>
       </c>
       <c r="J37" t="n">
-        <v>114.1280962182771</v>
+        <v>91.42074364747359</v>
       </c>
       <c r="K37" t="n">
-        <v>7510.884473730811</v>
+        <v>6600.231070353133</v>
       </c>
       <c r="L37" t="n">
-        <v>192173.4296934246</v>
+        <v>186674.5340361749</v>
       </c>
     </row>
     <row r="38">
@@ -1872,37 +1872,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93361.45916959323</v>
+        <v>94409.98623682404</v>
       </c>
       <c r="C38" t="n">
-        <v>500.1983276716088</v>
+        <v>399.1449133909571</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.00422778277278546</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9957722172272145</v>
       </c>
       <c r="F38" t="n">
-        <v>31.78891000588517</v>
+        <v>36.13811837827745</v>
       </c>
       <c r="G38" t="n">
-        <v>22749.2674262011</v>
+        <v>23004.76067650168</v>
       </c>
       <c r="H38" t="n">
-        <v>399165.287265902</v>
+        <v>428894.7090946954</v>
       </c>
       <c r="I38" t="n">
-        <v>5577071.293201402</v>
+        <v>6469330.559350703</v>
       </c>
       <c r="J38" t="n">
-        <v>117.1948915161834</v>
+        <v>93.51839507708284</v>
       </c>
       <c r="K38" t="n">
-        <v>7396.756377512535</v>
+        <v>6508.81032670566</v>
       </c>
       <c r="L38" t="n">
-        <v>184662.5452196937</v>
+        <v>180074.3029658218</v>
       </c>
     </row>
     <row r="39">
@@ -1910,37 +1910,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>92861.26084192163</v>
+        <v>94010.84132343308</v>
       </c>
       <c r="C39" t="n">
-        <v>534.0322375313879</v>
+        <v>424.5613205509231</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.004516088937979723</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9954839110620203</v>
       </c>
       <c r="F39" t="n">
-        <v>30.95744810581742</v>
+        <v>35.28942830672044</v>
       </c>
       <c r="G39" t="n">
-        <v>21757.10071060026</v>
+        <v>22026.44379386683</v>
       </c>
       <c r="H39" t="n">
-        <v>376416.0198397008</v>
+        <v>405889.9484181938</v>
       </c>
       <c r="I39" t="n">
-        <v>5177906.0059355</v>
+        <v>6040435.850256007</v>
       </c>
       <c r="J39" t="n">
-        <v>120.3096826439148</v>
+        <v>95.6474799620328</v>
       </c>
       <c r="K39" t="n">
-        <v>7279.561485996351</v>
+        <v>6415.291931628577</v>
       </c>
       <c r="L39" t="n">
-        <v>177265.7888421812</v>
+        <v>173565.4926391161</v>
       </c>
     </row>
     <row r="40">
@@ -1948,37 +1948,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92327.22860439024</v>
+        <v>93586.28000288215</v>
       </c>
       <c r="C40" t="n">
-        <v>569.9716848014124</v>
+        <v>451.5055191780766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.004824484092798342</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9951755159072017</v>
       </c>
       <c r="F40" t="n">
-        <v>30.13361779494716</v>
+        <v>34.44725321035651</v>
       </c>
       <c r="G40" t="n">
-        <v>20799.97946216402</v>
+        <v>21083.62539875607</v>
       </c>
       <c r="H40" t="n">
-        <v>354658.9191291006</v>
+        <v>383863.5046243269</v>
       </c>
       <c r="I40" t="n">
-        <v>4801489.986095799</v>
+        <v>5634545.901837813</v>
       </c>
       <c r="J40" t="n">
-        <v>123.4676120207015</v>
+        <v>97.80539937963248</v>
       </c>
       <c r="K40" t="n">
-        <v>7159.251803352437</v>
+        <v>6319.644451666544</v>
       </c>
       <c r="L40" t="n">
-        <v>169986.2273561849</v>
+        <v>167150.2007074876</v>
       </c>
     </row>
     <row r="41">
@@ -1986,37 +1986,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>91757.25691958884</v>
+        <v>93134.77448370408</v>
       </c>
       <c r="C41" t="n">
-        <v>608.1121510849331</v>
+        <v>480.050259076648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.005154361104515726</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9933725988385</v>
+        <v>0.9948456388954843</v>
       </c>
       <c r="F41" t="n">
-        <v>29.31769395010237</v>
+        <v>33.61182516825708</v>
       </c>
       <c r="G41" t="n">
-        <v>19876.51264006009</v>
+        <v>20174.91133019351</v>
       </c>
       <c r="H41" t="n">
-        <v>333858.9396669365</v>
+        <v>362779.8792255709</v>
       </c>
       <c r="I41" t="n">
-        <v>4446831.066966698</v>
+        <v>5250682.397213487</v>
       </c>
       <c r="J41" t="n">
-        <v>126.6630989974066</v>
+        <v>99.98920985327217</v>
       </c>
       <c r="K41" t="n">
-        <v>7035.784191331735</v>
+        <v>6221.839052286912</v>
       </c>
       <c r="L41" t="n">
-        <v>162826.9755528324</v>
+        <v>160830.556255821</v>
       </c>
     </row>
     <row r="42">
@@ -2024,37 +2024,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91149.1447685039</v>
+        <v>92654.72422462744</v>
       </c>
       <c r="C42" t="n">
-        <v>648.5476203907152</v>
+        <v>510.268876692755</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.005507208412338316</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9944927915876617</v>
       </c>
       <c r="F42" t="n">
-        <v>28.50995455662601</v>
+        <v>32.78337972614435</v>
       </c>
       <c r="G42" t="n">
-        <v>18985.36828567576</v>
+        <v>19298.96399225588</v>
       </c>
       <c r="H42" t="n">
-        <v>313982.4270268765</v>
+        <v>342604.9678953773</v>
       </c>
       <c r="I42" t="n">
-        <v>4112972.127299762</v>
+        <v>4887902.517987916</v>
       </c>
       <c r="J42" t="n">
-        <v>129.8897733361592</v>
+        <v>102.1955931226594</v>
       </c>
       <c r="K42" t="n">
-        <v>6909.121092334327</v>
+        <v>6121.84984243364</v>
       </c>
       <c r="L42" t="n">
-        <v>155791.1913615007</v>
+        <v>154608.7172035341</v>
       </c>
     </row>
     <row r="43">
@@ -2062,37 +2062,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90500.59714811319</v>
+        <v>92144.45534793468</v>
       </c>
       <c r="C43" t="n">
-        <v>691.3693557806649</v>
+        <v>542.2347767600128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.005884616439617019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.994115383560383</v>
       </c>
       <c r="F43" t="n">
-        <v>27.71068018659309</v>
+        <v>31.96215558245066</v>
       </c>
       <c r="G43" t="n">
-        <v>18125.2720398136</v>
+        <v>18454.50055327722</v>
       </c>
       <c r="H43" t="n">
-        <v>294997.0587412008</v>
+        <v>323306.0039031214</v>
       </c>
       <c r="I43" t="n">
-        <v>3798989.700272886</v>
+        <v>4545297.550092538</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1404055332724</v>
+        <v>104.4208243660928</v>
       </c>
       <c r="K43" t="n">
-        <v>6779.231318998169</v>
+        <v>6019.65424931098</v>
       </c>
       <c r="L43" t="n">
-        <v>148882.0702691663</v>
+        <v>148486.8673611004</v>
       </c>
     </row>
     <row r="44">
@@ -2100,37 +2100,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89809.22779233252</v>
+        <v>91602.22057117466</v>
       </c>
       <c r="C44" t="n">
-        <v>736.6644635049214</v>
+        <v>576.0208159996484</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.006288284415027712</v>
       </c>
       <c r="E44" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9937117155849723</v>
       </c>
       <c r="F44" t="n">
-        <v>26.92015343219832</v>
+        <v>31.14839424350345</v>
       </c>
       <c r="G44" t="n">
-        <v>17295.00578659519</v>
+        <v>17640.29124609277</v>
       </c>
       <c r="H44" t="n">
-        <v>276871.7867013871</v>
+        <v>304851.5033498442</v>
       </c>
       <c r="I44" t="n">
-        <v>3503992.641531685</v>
+        <v>4221991.546189417</v>
       </c>
       <c r="J44" t="n">
-        <v>136.40683437338</v>
+        <v>106.6607389609182</v>
       </c>
       <c r="K44" t="n">
-        <v>6646.090913464896</v>
+        <v>5915.233424944888</v>
       </c>
       <c r="L44" t="n">
-        <v>142102.8389501682</v>
+        <v>142467.2131117895</v>
       </c>
     </row>
     <row r="45">
@@ -2138,37 +2138,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89072.5633288276</v>
+        <v>91026.19975517501</v>
       </c>
       <c r="C45" t="n">
-        <v>784.5142209917095</v>
+        <v>611.6985770130998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.006720027625654268</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9932799723743457</v>
       </c>
       <c r="F45" t="n">
-        <v>26.13865829414999</v>
+        <v>30.34233964723013</v>
       </c>
       <c r="G45" t="n">
-        <v>16493.40642196815</v>
+        <v>16855.15776689751</v>
       </c>
       <c r="H45" t="n">
-        <v>259576.7809147919</v>
+        <v>287211.2121037514</v>
       </c>
       <c r="I45" t="n">
-        <v>3227120.854830297</v>
+        <v>3917140.042839573</v>
       </c>
       <c r="J45" t="n">
-        <v>139.6798922553973</v>
+        <v>108.9106979118388</v>
       </c>
       <c r="K45" t="n">
-        <v>6509.684079091517</v>
+        <v>5808.572685983969</v>
       </c>
       <c r="L45" t="n">
-        <v>135456.7480367033</v>
+        <v>136551.9796868446</v>
       </c>
     </row>
     <row r="46">
@@ -2176,37 +2176,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88288.04910783589</v>
+        <v>90414.50117816191</v>
       </c>
       <c r="C46" t="n">
-        <v>834.9921443093529</v>
+        <v>649.3375197091494</v>
       </c>
       <c r="D46" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.007181785125702667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.9928182148742973</v>
       </c>
       <c r="F46" t="n">
-        <v>25.36647952524709</v>
+        <v>29.54423775493501</v>
       </c>
       <c r="G46" t="n">
-        <v>15719.36474425244</v>
+        <v>16097.97177025885</v>
       </c>
       <c r="H46" t="n">
-        <v>243083.3744928238</v>
+        <v>270356.054336854</v>
       </c>
       <c r="I46" t="n">
-        <v>2967544.073915505</v>
+        <v>3629928.830735821</v>
       </c>
       <c r="J46" t="n">
-        <v>142.9493290125532</v>
+        <v>111.1655521284869</v>
       </c>
       <c r="K46" t="n">
-        <v>6370.00418683612</v>
+        <v>5699.66198807213</v>
       </c>
       <c r="L46" t="n">
-        <v>128947.0639576118</v>
+        <v>130743.4070008606</v>
       </c>
     </row>
     <row r="47">
@@ -2214,37 +2214,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>87453.05696352654</v>
+        <v>89765.16365845276</v>
       </c>
       <c r="C47" t="n">
-        <v>888.1617704682585</v>
+        <v>689.0039968975561</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.007675627925317952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.992324372074682</v>
       </c>
       <c r="F47" t="n">
-        <v>24.60390192969054</v>
+        <v>28.75433611087842</v>
       </c>
       <c r="G47" t="n">
-        <v>14971.82446353787</v>
+        <v>15367.65345773578</v>
       </c>
       <c r="H47" t="n">
-        <v>227364.0097485713</v>
+        <v>254258.0825665951</v>
       </c>
       <c r="I47" t="n">
-        <v>2724460.699422682</v>
+        <v>3359572.776398967</v>
       </c>
       <c r="J47" t="n">
-        <v>146.2037351630657</v>
+        <v>113.4196057950055</v>
       </c>
       <c r="K47" t="n">
-        <v>6227.054857823567</v>
+        <v>5588.496435943643</v>
       </c>
       <c r="L47" t="n">
-        <v>122577.0597707757</v>
+        <v>125043.7450127885</v>
       </c>
     </row>
     <row r="48">
@@ -2252,37 +2252,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>86564.89519305828</v>
+        <v>89076.1596615552</v>
       </c>
       <c r="C48" t="n">
-        <v>944.0741303587588</v>
+        <v>730.7601201034911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.008203767684642149</v>
       </c>
       <c r="E48" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9917962323153579</v>
       </c>
       <c r="F48" t="n">
-        <v>23.8512096190873</v>
+        <v>27.97288336958433</v>
       </c>
       <c r="G48" t="n">
-        <v>14249.78132593104</v>
+        <v>14663.17025741248</v>
       </c>
       <c r="H48" t="n">
-        <v>212392.1852850335</v>
+        <v>238890.4291088593</v>
       </c>
       <c r="I48" t="n">
-        <v>2497096.68967411</v>
+        <v>3105314.693832372</v>
       </c>
       <c r="J48" t="n">
-        <v>149.4304657781052</v>
+        <v>115.6665791463138</v>
       </c>
       <c r="K48" t="n">
-        <v>6080.851122660501</v>
+        <v>5475.076830148638</v>
       </c>
       <c r="L48" t="n">
-        <v>116350.0049129521</v>
+        <v>119455.2485768449</v>
       </c>
     </row>
     <row r="49">
@@ -2290,37 +2290,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85620.82106269953</v>
+        <v>88345.39954145171</v>
       </c>
       <c r="C49" t="n">
-        <v>1002.764889444088</v>
+        <v>774.6624612702767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.008768565938816142</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9912314340611839</v>
       </c>
       <c r="F49" t="n">
-        <v>23.10868522654289</v>
+        <v>27.20012879102053</v>
       </c>
       <c r="G49" t="n">
-        <v>13552.28234761712</v>
+        <v>13983.53559144261</v>
       </c>
       <c r="H49" t="n">
-        <v>198142.4039591024</v>
+        <v>224227.2588514469</v>
       </c>
       <c r="I49" t="n">
-        <v>2284704.504389076</v>
+        <v>2866424.264723512</v>
       </c>
       <c r="J49" t="n">
-        <v>152.6155664429188</v>
+        <v>117.899571049372</v>
       </c>
       <c r="K49" t="n">
-        <v>5931.420656882396</v>
+        <v>5359.410251002324</v>
       </c>
       <c r="L49" t="n">
-        <v>110269.1537902916</v>
+        <v>113980.1717466962</v>
       </c>
     </row>
     <row r="50">
@@ -2328,37 +2328,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84618.05617325543</v>
+        <v>87570.73708018144</v>
       </c>
       <c r="C50" t="n">
-        <v>1064.251135802358</v>
+        <v>820.7605758939399</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.009372543880068473</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9906274561199315</v>
       </c>
       <c r="F50" t="n">
-        <v>22.37660908070531</v>
+        <v>26.4363217040315</v>
       </c>
       <c r="G50" t="n">
-        <v>12878.42515241969</v>
+        <v>13327.80772841467</v>
       </c>
       <c r="H50" t="n">
-        <v>184590.1216114853</v>
+        <v>210243.7232600043</v>
       </c>
       <c r="I50" t="n">
-        <v>2086562.100429974</v>
+        <v>2642197.005872066</v>
       </c>
       <c r="J50" t="n">
-        <v>155.7437031177247</v>
+        <v>120.1110218843098</v>
       </c>
       <c r="K50" t="n">
-        <v>5778.805090439475</v>
+        <v>5241.510679952953</v>
       </c>
       <c r="L50" t="n">
-        <v>104337.7331334092</v>
+        <v>108620.7614956939</v>
       </c>
     </row>
     <row r="51">
@@ -2366,37 +2366,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83553.80503745307</v>
+        <v>86749.97650428749</v>
       </c>
       <c r="C51" t="n">
-        <v>1128.527799040504</v>
+        <v>869.0953333587398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.01001839272332006</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9899816072766799</v>
       </c>
       <c r="F51" t="n">
-        <v>21.65525834211487</v>
+        <v>25.68171093865935</v>
       </c>
       <c r="G51" t="n">
-        <v>12227.35740497813</v>
+        <v>12695.08871697595</v>
       </c>
       <c r="H51" t="n">
-        <v>171711.6964590656</v>
+        <v>196915.9155315896</v>
       </c>
       <c r="I51" t="n">
-        <v>1901971.978818489</v>
+        <v>2431953.282612062</v>
       </c>
       <c r="J51" t="n">
-        <v>158.7980980792534</v>
+        <v>122.2926773308215</v>
       </c>
       <c r="K51" t="n">
-        <v>5623.061387321751</v>
+        <v>5121.399658068643</v>
       </c>
       <c r="L51" t="n">
-        <v>98558.9280429697</v>
+        <v>103379.2508157409</v>
       </c>
     </row>
     <row r="52">
@@ -2404,37 +2404,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82425.27723841257</v>
+        <v>85880.88117092875</v>
       </c>
       <c r="C52" t="n">
-        <v>1195.563689335605</v>
+        <v>919.6970409210629</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.01070898468182446</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9892910153181755</v>
       </c>
       <c r="F52" t="n">
-        <v>20.94490610472905</v>
+        <v>24.93654422826217</v>
       </c>
       <c r="G52" t="n">
-        <v>11598.27632978434</v>
+        <v>12084.52339668451</v>
       </c>
       <c r="H52" t="n">
-        <v>159484.3390540875</v>
+        <v>184220.8268146137</v>
       </c>
       <c r="I52" t="n">
-        <v>1730260.282359423</v>
+        <v>2235037.367080471</v>
       </c>
       <c r="J52" t="n">
-        <v>161.7604745421819</v>
+        <v>124.435553790619</v>
       </c>
       <c r="K52" t="n">
-        <v>5464.263289242497</v>
+        <v>4999.106980737821</v>
       </c>
       <c r="L52" t="n">
-        <v>92935.86665564796</v>
+        <v>98257.8511576723</v>
       </c>
     </row>
     <row r="53">
@@ -2442,37 +2442,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81229.71354907697</v>
+        <v>84961.18413000769</v>
       </c>
       <c r="C53" t="n">
-        <v>1265.29715378903</v>
+        <v>972.5833490417634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.01144738457921579</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.9885526154207842</v>
       </c>
       <c r="F53" t="n">
-        <v>20.24582046602275</v>
+        <v>24.20106758262926</v>
       </c>
       <c r="G53" t="n">
-        <v>10990.4283040966</v>
+        <v>11495.29848148295</v>
       </c>
       <c r="H53" t="n">
-        <v>147886.0627243032</v>
+        <v>172136.3034179292</v>
       </c>
       <c r="I53" t="n">
-        <v>1570775.943305336</v>
+        <v>2050816.540265858</v>
       </c>
       <c r="J53" t="n">
-        <v>164.6110130208562</v>
+        <v>126.5299063177025</v>
       </c>
       <c r="K53" t="n">
-        <v>5302.502814700316</v>
+        <v>4874.671426947202</v>
       </c>
       <c r="L53" t="n">
-        <v>87471.60336640546</v>
+        <v>93258.74417693446</v>
       </c>
     </row>
     <row r="54">
@@ -2480,37 +2480,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>79964.41639528795</v>
+        <v>83988.60078096593</v>
       </c>
       <c r="C54" t="n">
-        <v>1337.631357848981</v>
+        <v>1027.756927737309</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.01223686212391606</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9877631378760839</v>
       </c>
       <c r="F54" t="n">
-        <v>19.5582635696075</v>
+        <v>23.47552463359852</v>
       </c>
       <c r="G54" t="n">
-        <v>10403.10851014896</v>
+        <v>10926.64171049283</v>
       </c>
       <c r="H54" t="n">
-        <v>136895.6344202065</v>
+        <v>160641.0049364462</v>
       </c>
       <c r="I54" t="n">
-        <v>1422889.880581032</v>
+        <v>1878680.236847929</v>
       </c>
       <c r="J54" t="n">
-        <v>167.3283229925412</v>
+        <v>128.5652000853183</v>
       </c>
       <c r="K54" t="n">
-        <v>5137.89180167946</v>
+        <v>4748.141520629501</v>
       </c>
       <c r="L54" t="n">
-        <v>82169.10055170515</v>
+        <v>88384.07274998726</v>
       </c>
     </row>
     <row r="55">
@@ -2518,37 +2518,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78626.78503743897</v>
+        <v>82960.84385322862</v>
       </c>
       <c r="C55" t="n">
-        <v>1412.42921323922</v>
+        <v>1085.202906468794</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.01308090487108227</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.9869190951289177</v>
       </c>
       <c r="F55" t="n">
-        <v>18.88249062486252</v>
+        <v>22.76015595500065</v>
       </c>
       <c r="G55" t="n">
-        <v>9835.66062907376</v>
+        <v>10377.82106000394</v>
       </c>
       <c r="H55" t="n">
-        <v>126492.5259100576</v>
+        <v>149714.3632259534</v>
       </c>
       <c r="I55" t="n">
-        <v>1285994.246160826</v>
+        <v>1718039.231911483</v>
       </c>
       <c r="J55" t="n">
-        <v>169.8894339568365</v>
+        <v>130.5300865913708</v>
       </c>
       <c r="K55" t="n">
-        <v>4970.563478686919</v>
+        <v>4619.576320544181</v>
       </c>
       <c r="L55" t="n">
-        <v>77031.20875002569</v>
+        <v>83635.93122935775</v>
       </c>
     </row>
     <row r="56">
@@ -2556,37 +2556,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77214.35582419975</v>
+        <v>81875.64094675983</v>
       </c>
       <c r="C56" t="n">
-        <v>1489.507991126637</v>
+        <v>1144.886074001123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.01398323189610928</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9860167681038907</v>
       </c>
       <c r="F56" t="n">
-        <v>18.21874890861698</v>
+        <v>22.05519835908422</v>
       </c>
       <c r="G56" t="n">
-        <v>9287.476555537163</v>
+        <v>9848.14400956626</v>
       </c>
       <c r="H56" t="n">
-        <v>116656.8652809838</v>
+        <v>139336.5421659494</v>
       </c>
       <c r="I56" t="n">
-        <v>1159501.720250769</v>
+        <v>1568324.86868553</v>
       </c>
       <c r="J56" t="n">
-        <v>172.2698105414786</v>
+        <v>132.4123859923505</v>
       </c>
       <c r="K56" t="n">
-        <v>4800.674044730083</v>
+        <v>4489.04623395281</v>
       </c>
       <c r="L56" t="n">
-        <v>72060.64527133878</v>
+        <v>79016.35490881358</v>
       </c>
     </row>
     <row r="57">
@@ -2594,37 +2594,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>75724.84783307312</v>
+        <v>80730.7548727587</v>
       </c>
       <c r="C57" t="n">
-        <v>1568.633680666736</v>
+        <v>1206.747839845526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.0149478082020601</v>
       </c>
       <c r="E57" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9850521917979399</v>
       </c>
       <c r="F57" t="n">
-        <v>17.56727675446132</v>
+        <v>21.36088417191408</v>
       </c>
       <c r="G57" t="n">
-        <v>8757.996108244255</v>
+        <v>9336.956853975205</v>
       </c>
       <c r="H57" t="n">
-        <v>107369.3887254467</v>
+        <v>129488.3981563832</v>
       </c>
       <c r="I57" t="n">
-        <v>1042844.854969785</v>
+        <v>1428988.32651958</v>
       </c>
       <c r="J57" t="n">
-        <v>174.4433968666528</v>
+        <v>134.1990771578191</v>
       </c>
       <c r="K57" t="n">
-        <v>4628.404234188604</v>
+        <v>4356.63384796046</v>
       </c>
       <c r="L57" t="n">
-        <v>67259.97122660869</v>
+        <v>74527.30867486077</v>
       </c>
     </row>
     <row r="58">
@@ -2632,37 +2632,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74156.21415240638</v>
+        <v>79524.00703291317</v>
       </c>
       <c r="C58" t="n">
-        <v>1649.515179050763</v>
+        <v>1270.70296556957</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.01597885988118852</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9840211401188115</v>
       </c>
       <c r="F58" t="n">
-        <v>16.92830253578406</v>
+        <v>20.67744049057778</v>
       </c>
       <c r="G58" t="n">
-        <v>8246.70670721436</v>
+        <v>8843.644051664493</v>
       </c>
       <c r="H58" t="n">
-        <v>98611.39261720239</v>
+        <v>120151.441302408</v>
       </c>
       <c r="I58" t="n">
-        <v>935475.4662443381</v>
+        <v>1299499.928363197</v>
       </c>
       <c r="J58" t="n">
-        <v>176.3826959258431</v>
+        <v>135.8762972506281</v>
       </c>
       <c r="K58" t="n">
-        <v>4453.96083732195</v>
+        <v>4222.434770802642</v>
       </c>
       <c r="L58" t="n">
-        <v>62631.56699242008</v>
+        <v>70170.67482690031</v>
       </c>
     </row>
     <row r="59">
@@ -2670,37 +2670,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72506.69897335561</v>
+        <v>78253.3040673436</v>
       </c>
       <c r="C59" t="n">
-        <v>1731.798430134753</v>
+        <v>1336.636082656613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.01708089004786717</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9829191099521328</v>
       </c>
       <c r="F59" t="n">
-        <v>16.30204364912273</v>
+        <v>20.00508842537828</v>
       </c>
       <c r="G59" t="n">
-        <v>7753.142984087963</v>
+        <v>8367.627598580615</v>
       </c>
       <c r="H59" t="n">
-        <v>90364.68590998805</v>
+        <v>111307.7972507435</v>
       </c>
       <c r="I59" t="n">
-        <v>836864.0736271356</v>
+        <v>1179348.487060789</v>
       </c>
       <c r="J59" t="n">
-        <v>178.0588902416696</v>
+        <v>137.4293528585137</v>
       </c>
       <c r="K59" t="n">
-        <v>4277.578141396107</v>
+        <v>4086.558473552013</v>
       </c>
       <c r="L59" t="n">
-        <v>58177.60615509815</v>
+        <v>65948.24005609768</v>
       </c>
     </row>
     <row r="60">
@@ -2708,37 +2708,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70774.90054322087</v>
+        <v>76916.667984687</v>
       </c>
       <c r="C60" t="n">
-        <v>1815.060664914417</v>
+        <v>1404.398023960967</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.01825869555660631</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9817413044433937</v>
       </c>
       <c r="F60" t="n">
-        <v>15.68870550487143</v>
+        <v>19.3440423305313</v>
       </c>
       <c r="G60" t="n">
-        <v>7276.886286765987</v>
+        <v>7908.366415007462</v>
       </c>
       <c r="H60" t="n">
-        <v>82611.54292590007</v>
+        <v>102940.1696521629</v>
       </c>
       <c r="I60" t="n">
-        <v>746499.3877171476</v>
+        <v>1068040.689810046</v>
       </c>
       <c r="J60" t="n">
-        <v>179.4420104713943</v>
+        <v>138.8427449247224</v>
       </c>
       <c r="K60" t="n">
-        <v>4099.519251154437</v>
+        <v>3949.129120693499</v>
       </c>
       <c r="L60" t="n">
-        <v>53900.02801370204</v>
+        <v>61861.68158254566</v>
       </c>
     </row>
     <row r="61">
@@ -2746,37 +2746,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68959.83987830645</v>
+        <v>75512.26996072603</v>
       </c>
       <c r="C61" t="n">
-        <v>1898.804938560688</v>
+        <v>1473.802008374458</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.01951738451434426</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9804826154856557</v>
       </c>
       <c r="F61" t="n">
-        <v>15.08848053279364</v>
+        <v>18.6945090272178</v>
       </c>
       <c r="G61" t="n">
-        <v>6817.5640344959</v>
+        <v>7465.35573104399</v>
       </c>
       <c r="H61" t="n">
-        <v>75334.65663913409</v>
+        <v>95031.8032371554</v>
       </c>
       <c r="I61" t="n">
-        <v>663887.8447912475</v>
+        <v>965100.5201578825</v>
       </c>
       <c r="J61" t="n">
-        <v>180.5011589200519</v>
+        <v>140.1002099414895</v>
       </c>
       <c r="K61" t="n">
-        <v>3920.077240683044</v>
+        <v>3810.286375768776</v>
       </c>
       <c r="L61" t="n">
-        <v>49800.5087625476</v>
+        <v>57912.55246185216</v>
       </c>
     </row>
     <row r="62">
@@ -2784,37 +2784,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67061.03493974576</v>
+        <v>74038.46795235157</v>
       </c>
       <c r="C62" t="n">
-        <v>1982.45520517446</v>
+        <v>1544.619733309694</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.02086239459065731</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9791376054093427</v>
       </c>
       <c r="F62" t="n">
-        <v>14.50154721013696</v>
+        <v>18.05668702316118</v>
       </c>
       <c r="G62" t="n">
-        <v>6374.848874249083</v>
+        <v>7038.126454523884</v>
       </c>
       <c r="H62" t="n">
-        <v>68517.09260463819</v>
+        <v>87566.44750611141</v>
       </c>
       <c r="I62" t="n">
-        <v>588553.1881521133</v>
+        <v>870068.7169207269</v>
       </c>
       <c r="J62" t="n">
-        <v>181.2047950094832</v>
+        <v>141.1847800704049</v>
       </c>
       <c r="K62" t="n">
-        <v>3739.576081762992</v>
+        <v>3670.186165827287</v>
       </c>
       <c r="L62" t="n">
-        <v>45880.43152186456</v>
+        <v>54102.26608608338</v>
       </c>
     </row>
     <row r="63">
@@ -2822,37 +2822,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65078.5797345713</v>
+        <v>72493.84821904187</v>
       </c>
       <c r="C63" t="n">
-        <v>2065.3522221443</v>
+        <v>1616.577447190317</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.02229951212281889</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9777004878771811</v>
       </c>
       <c r="F63" t="n">
-        <v>13.92806912042515</v>
+        <v>17.43076573319983</v>
       </c>
       <c r="G63" t="n">
-        <v>5948.457584076173</v>
+        <v>6626.244503125637</v>
       </c>
       <c r="H63" t="n">
-        <v>62142.24373038911</v>
+        <v>80528.32105158751</v>
       </c>
       <c r="I63" t="n">
-        <v>520036.0955474753</v>
+        <v>782502.2694146157</v>
       </c>
       <c r="J63" t="n">
-        <v>181.5210895769714</v>
+        <v>142.078865025204</v>
       </c>
       <c r="K63" t="n">
-        <v>3558.371286753509</v>
+        <v>3529.001385756882</v>
       </c>
       <c r="L63" t="n">
-        <v>42140.85544010156</v>
+        <v>50432.07992025609</v>
       </c>
     </row>
     <row r="64">
@@ -2860,37 +2860,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>63013.227512427</v>
+        <v>70877.27077185156</v>
       </c>
       <c r="C64" t="n">
-        <v>2146.750629705523</v>
+        <v>1689.352094425835</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.02383489200457123</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9761651079954288</v>
       </c>
       <c r="F64" t="n">
-        <v>13.36819405120271</v>
+        <v>16.81692470560235</v>
       </c>
       <c r="G64" t="n">
-        <v>5538.149664342425</v>
+        <v>6229.310080287909</v>
       </c>
       <c r="H64" t="n">
-        <v>56193.78614631294</v>
+        <v>73902.07654846189</v>
       </c>
       <c r="I64" t="n">
-        <v>457893.8518170862</v>
+        <v>701973.9483630281</v>
       </c>
       <c r="J64" t="n">
-        <v>181.4183543536685</v>
+        <v>142.7643586794704</v>
       </c>
       <c r="K64" t="n">
-        <v>3376.850197176538</v>
+        <v>3386.922520731678</v>
       </c>
       <c r="L64" t="n">
-        <v>38582.48415334805</v>
+        <v>46903.0785344992</v>
       </c>
     </row>
     <row r="65">
@@ -2898,37 +2898,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>60866.47688272148</v>
+        <v>69187.91867742573</v>
       </c>
       <c r="C65" t="n">
-        <v>2225.817605968951</v>
+        <v>1762.567648339148</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.02547507833783458</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.9745249216621654</v>
       </c>
       <c r="F65" t="n">
-        <v>12.82205313911772</v>
+        <v>16.21533285911994</v>
       </c>
       <c r="G65" t="n">
-        <v>5143.725553667894</v>
+        <v>5846.956872366595</v>
       </c>
       <c r="H65" t="n">
-        <v>50655.63648197052</v>
+        <v>67672.76646817397</v>
       </c>
       <c r="I65" t="n">
-        <v>401700.0656707732</v>
+        <v>628071.8718145663</v>
       </c>
       <c r="J65" t="n">
-        <v>180.865552005532</v>
+        <v>143.2227734244993</v>
       </c>
       <c r="K65" t="n">
-        <v>3195.43184282287</v>
+        <v>3244.158162052207</v>
       </c>
       <c r="L65" t="n">
-        <v>35205.63395617151</v>
+        <v>43516.15601376753</v>
       </c>
     </row>
     <row r="66">
@@ -2936,37 +2936,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58640.65927675253</v>
+        <v>67425.35102908658</v>
       </c>
       <c r="C66" t="n">
-        <v>2301.633550360719</v>
+        <v>1835.79177306685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.02722702581518499</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.972772974184815</v>
       </c>
       <c r="F66" t="n">
-        <v>12.28976007074163</v>
+        <v>15.62614773598157</v>
       </c>
       <c r="G66" t="n">
-        <v>4765.024403444365</v>
+        <v>5478.851142312611</v>
       </c>
       <c r="H66" t="n">
-        <v>45511.91092830262</v>
+        <v>61825.80959580738</v>
       </c>
       <c r="I66" t="n">
-        <v>351044.4291888027</v>
+        <v>560399.1053463923</v>
       </c>
       <c r="J66" t="n">
-        <v>179.8328906040973</v>
+        <v>143.4354052781742</v>
       </c>
       <c r="K66" t="n">
-        <v>3014.566290817338</v>
+        <v>3100.935388627708</v>
       </c>
       <c r="L66" t="n">
-        <v>32010.20211334864</v>
+        <v>40271.99785171532</v>
       </c>
     </row>
     <row r="67">
@@ -2974,37 +2974,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56339.02572639181</v>
+        <v>65589.55925601973</v>
       </c>
       <c r="C67" t="n">
-        <v>2373.195295045887</v>
+        <v>1908.532983219923</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.02909812178749716</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9709018782125028</v>
       </c>
       <c r="F67" t="n">
-        <v>11.77141034743093</v>
+        <v>15.04951477620696</v>
       </c>
       <c r="G67" t="n">
-        <v>4401.921343477023</v>
+        <v>5124.690693099335</v>
       </c>
       <c r="H67" t="n">
-        <v>40746.88652485826</v>
+        <v>56346.95845349476</v>
       </c>
       <c r="I67" t="n">
-        <v>305532.5182605</v>
+        <v>498573.295750585</v>
       </c>
       <c r="J67" t="n">
-        <v>178.2925042224816</v>
+        <v>143.3835326067862</v>
       </c>
       <c r="K67" t="n">
-        <v>2834.73340021324</v>
+        <v>2957.499983349534</v>
       </c>
       <c r="L67" t="n">
-        <v>28995.63582253131</v>
+        <v>37171.06246308762</v>
       </c>
     </row>
     <row r="68">
@@ -3012,37 +3012,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53965.83043134592</v>
+        <v>63681.02627279981</v>
       </c>
       <c r="C68" t="n">
-        <v>2439.42237920786</v>
+        <v>1980.238499475583</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.03109620895543586</v>
       </c>
       <c r="E68" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9689037910445641</v>
       </c>
       <c r="F68" t="n">
-        <v>11.26708062232987</v>
+        <v>14.48556661873352</v>
       </c>
       <c r="G68" t="n">
-        <v>4054.324172197732</v>
+        <v>4784.203672296421</v>
       </c>
       <c r="H68" t="n">
-        <v>36344.96518138124</v>
+        <v>51222.26776039543</v>
       </c>
       <c r="I68" t="n">
-        <v>264785.6317356418</v>
+        <v>442226.3372970902</v>
       </c>
       <c r="J68" t="n">
-        <v>176.2192184168744</v>
+        <v>143.0486510375895</v>
       </c>
       <c r="K68" t="n">
-        <v>2656.440895990758</v>
+        <v>2814.116450742747</v>
       </c>
       <c r="L68" t="n">
-        <v>26160.90242231806</v>
+        <v>34213.56247973809</v>
       </c>
     </row>
     <row r="69">
@@ -3050,37 +3050,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51526.40805213806</v>
+        <v>61700.78777332422</v>
       </c>
       <c r="C69" t="n">
-        <v>2499.166938374758</v>
+        <v>2050.293028337866</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.03322960860516422</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9667703913948358</v>
       </c>
       <c r="F69" t="n">
-        <v>10.77682811728953</v>
+        <v>13.93442243492085</v>
       </c>
       <c r="G69" t="n">
-        <v>3722.169408696329</v>
+        <v>4457.147187708968</v>
       </c>
       <c r="H69" t="n">
-        <v>32290.6410091835</v>
+        <v>46438.064088099</v>
       </c>
       <c r="I69" t="n">
-        <v>228440.6665542606</v>
+        <v>391004.0695366948</v>
       </c>
       <c r="J69" t="n">
-        <v>173.59139556001</v>
+        <v>142.4127466761321</v>
       </c>
       <c r="K69" t="n">
-        <v>2480.221677573884</v>
+        <v>2671.067799705158</v>
       </c>
       <c r="L69" t="n">
-        <v>23504.46152632731</v>
+        <v>31399.44602899534</v>
       </c>
     </row>
     <row r="70">
@@ -3088,37 +3088,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49027.2411137633</v>
+        <v>59650.49474498635</v>
       </c>
       <c r="C70" t="n">
-        <v>2551.227752302508</v>
+        <v>2118.018723725343</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.03550714428740531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9644928557125947</v>
       </c>
       <c r="F70" t="n">
-        <v>10.30069012703415</v>
+        <v>13.39618730000404</v>
       </c>
       <c r="G70" t="n">
-        <v>3405.417651263384</v>
+        <v>4143.30570304403</v>
       </c>
       <c r="H70" t="n">
-        <v>28568.47160048718</v>
+        <v>41980.91690039004</v>
       </c>
       <c r="I70" t="n">
-        <v>196150.0255450771</v>
+        <v>344566.0054485958</v>
       </c>
       <c r="J70" t="n">
-        <v>170.3918502699239</v>
+        <v>141.4586090623208</v>
       </c>
       <c r="K70" t="n">
-        <v>2306.630282013874</v>
+        <v>2528.655053029026</v>
       </c>
       <c r="L70" t="n">
-        <v>21024.23984875342</v>
+        <v>28728.37822929018</v>
       </c>
     </row>
     <row r="71">
@@ -3126,37 +3126,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>46476.0133614608</v>
+        <v>57532.47602126101</v>
       </c>
       <c r="C71" t="n">
-        <v>2594.368950962243</v>
+        <v>2182.676615012045</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.0379381658144774</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9620618341855226</v>
       </c>
       <c r="F71" t="n">
-        <v>9.838683617339415</v>
+        <v>12.87095160800955</v>
       </c>
       <c r="G71" t="n">
-        <v>3104.04819902179</v>
+        <v>3842.489182326168</v>
       </c>
       <c r="H71" t="n">
-        <v>25163.05394922379</v>
+        <v>37837.61119734601</v>
       </c>
       <c r="I71" t="n">
-        <v>167581.5539445899</v>
+        <v>302585.0885482058</v>
       </c>
       <c r="J71" t="n">
-        <v>166.6088194951262</v>
+        <v>140.1701843648326</v>
       </c>
       <c r="K71" t="n">
-        <v>2136.23843174395</v>
+        <v>2387.196443966705</v>
       </c>
       <c r="L71" t="n">
-        <v>18717.60956673955</v>
+        <v>26199.72317626115</v>
       </c>
     </row>
     <row r="72">
@@ -3164,37 +3164,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>43881.64441049856</v>
+        <v>55349.79940624897</v>
       </c>
       <c r="C72" t="n">
-        <v>2627.343788714626</v>
+        <v>2243.469808311924</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.040532573421732</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.959467426578268</v>
       </c>
       <c r="F72" t="n">
-        <v>9.390804923301427</v>
+        <v>12.35879053551973</v>
       </c>
       <c r="G72" t="n">
-        <v>2818.052910333519</v>
+        <v>3554.530952487253</v>
       </c>
       <c r="H72" t="n">
-        <v>22059.005750202</v>
+        <v>33995.12201501984</v>
       </c>
       <c r="I72" t="n">
-        <v>142418.4999953661</v>
+        <v>264747.4773508598</v>
       </c>
       <c r="J72" t="n">
-        <v>162.2369652088376</v>
+        <v>138.5329680879889</v>
       </c>
       <c r="K72" t="n">
-        <v>1969.629612248824</v>
+        <v>2247.026259601872</v>
       </c>
       <c r="L72" t="n">
-        <v>16581.3711349956</v>
+        <v>23812.52673229445</v>
       </c>
     </row>
     <row r="73">
@@ -3202,37 +3202,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41254.30062178393</v>
+        <v>53106.32959793705</v>
       </c>
       <c r="C73" t="n">
-        <v>2648.923751209511</v>
+        <v>2299.54878221064</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.04330084190755235</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9566991580924477</v>
       </c>
       <c r="F73" t="n">
-        <v>8.95702955297252</v>
+        <v>11.85976355946916</v>
       </c>
       <c r="G73" t="n">
-        <v>2547.429294727237</v>
+        <v>3279.285255457446</v>
       </c>
       <c r="H73" t="n">
-        <v>19240.95283986848</v>
+        <v>30440.59106253258</v>
       </c>
       <c r="I73" t="n">
-        <v>120359.4942451641</v>
+        <v>230752.3553358399</v>
       </c>
       <c r="J73" t="n">
-        <v>157.2783802496154</v>
+        <v>136.5344350157021</v>
       </c>
       <c r="K73" t="n">
-        <v>1807.392647039987</v>
+        <v>2108.493291513883</v>
       </c>
       <c r="L73" t="n">
-        <v>14611.74152274678</v>
+        <v>21565.50047269258</v>
       </c>
     </row>
     <row r="74">
@@ -3240,37 +3240,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38605.37687057442</v>
+        <v>50806.78081572641</v>
       </c>
       <c r="C74" t="n">
-        <v>2657.933047918729</v>
+        <v>2350.019102237742</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.04625404452923598</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.953745955470764</v>
       </c>
       <c r="F74" t="n">
-        <v>8.537312100728835</v>
+        <v>11.3739140338738</v>
       </c>
       <c r="G74" t="n">
-        <v>2292.17286468042</v>
+        <v>3016.624464462611</v>
       </c>
       <c r="H74" t="n">
-        <v>16693.52354514124</v>
+        <v>27161.30580707514</v>
       </c>
       <c r="I74" t="n">
-        <v>101118.5414052956</v>
+        <v>200311.7642733074</v>
       </c>
       <c r="J74" t="n">
-        <v>151.7435598564047</v>
+        <v>134.1645022184964</v>
       </c>
       <c r="K74" t="n">
-        <v>1650.114266790371</v>
+        <v>1971.958856498181</v>
       </c>
       <c r="L74" t="n">
-        <v>12804.34887570679</v>
+        <v>19457.00718117869</v>
       </c>
     </row>
     <row r="75">
@@ -3278,37 +3278,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35947.44382265569</v>
+        <v>48456.76171348867</v>
       </c>
       <c r="C75" t="n">
-        <v>2653.288257396984</v>
+        <v>2393.951865965413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.04940387639025867</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.9505961236097413</v>
       </c>
       <c r="F75" t="n">
-        <v>8.131586273723036</v>
+        <v>10.90126883002769</v>
       </c>
       <c r="G75" t="n">
-        <v>2052.268810028615</v>
+        <v>2766.435944380168</v>
       </c>
       <c r="H75" t="n">
-        <v>14401.35068046082</v>
+        <v>24144.68134261253</v>
       </c>
       <c r="I75" t="n">
-        <v>84425.01786015437</v>
+        <v>173150.4584662323</v>
       </c>
       <c r="J75" t="n">
-        <v>145.6522932568434</v>
+        <v>131.4160186901215</v>
       </c>
       <c r="K75" t="n">
-        <v>1498.370706933966</v>
+        <v>1837.794354279685</v>
       </c>
       <c r="L75" t="n">
-        <v>11154.23460891642</v>
+        <v>17485.04832468051</v>
       </c>
     </row>
     <row r="76">
@@ -3316,37 +3316,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33294.1555652587</v>
+        <v>46062.80984752325</v>
       </c>
       <c r="C76" t="n">
-        <v>2634.042527960034</v>
+        <v>2430.397158022382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.05276267700705761</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9472373229929424</v>
       </c>
       <c r="F76" t="n">
-        <v>7.739765033676641</v>
+        <v>10.44183804424794</v>
       </c>
       <c r="G76" t="n">
-        <v>1827.68310100144</v>
+        <v>2528.618543213886</v>
       </c>
       <c r="H76" t="n">
-        <v>12349.08187043221</v>
+        <v>21378.24539823236</v>
       </c>
       <c r="I76" t="n">
-        <v>70023.66717969356</v>
+        <v>149005.7771236197</v>
       </c>
       <c r="J76" t="n">
-        <v>139.0344218174225</v>
+        <v>128.2852725669719</v>
       </c>
       <c r="K76" t="n">
-        <v>1352.718413677123</v>
+        <v>1706.378335589563</v>
       </c>
       <c r="L76" t="n">
-        <v>9655.863901982451</v>
+        <v>15647.25397040082</v>
       </c>
     </row>
     <row r="77">
@@ -3354,37 +3354,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30660.11303729867</v>
+        <v>43632.41268950087</v>
       </c>
       <c r="C77" t="n">
-        <v>2599.433294974037</v>
+        <v>2458.400736493284</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.05634345169009736</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9436565483099026</v>
       </c>
       <c r="F77" t="n">
-        <v>7.361740855094632</v>
+        <v>9.995614776701547</v>
       </c>
       <c r="G77" t="n">
-        <v>1618.353175299346</v>
+        <v>2303.078711292534</v>
       </c>
       <c r="H77" t="n">
-        <v>10521.39876943077</v>
+        <v>18849.62685501848</v>
       </c>
       <c r="I77" t="n">
-        <v>57674.58530926135</v>
+        <v>127627.5317253873</v>
       </c>
       <c r="J77" t="n">
-        <v>131.930403473625</v>
+        <v>124.7725039501948</v>
       </c>
       <c r="K77" t="n">
-        <v>1213.6839918597</v>
+        <v>1578.093063022592</v>
       </c>
       <c r="L77" t="n">
-        <v>8303.145488305328</v>
+        <v>13940.87563481126</v>
       </c>
     </row>
     <row r="78">
@@ -3392,37 +3392,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28060.67974232463</v>
+        <v>41174.01195300759</v>
       </c>
       <c r="C78" t="n">
-        <v>2548.931967348487</v>
+        <v>2477.024084056962</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.06015989131406529</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9398401086859347</v>
       </c>
       <c r="F78" t="n">
-        <v>6.99738609975751</v>
+        <v>9.562574984201911</v>
       </c>
       <c r="G78" t="n">
-        <v>1424.178418929592</v>
+        <v>2089.726256908011</v>
       </c>
       <c r="H78" t="n">
-        <v>8903.045594131423</v>
+        <v>16546.54814372594</v>
       </c>
       <c r="I78" t="n">
-        <v>47153.18653983059</v>
+        <v>108777.9048703688</v>
       </c>
       <c r="J78" t="n">
-        <v>124.3916183315883</v>
+        <v>120.8824081651292</v>
       </c>
       <c r="K78" t="n">
-        <v>1081.753588386075</v>
+        <v>1453.320559072397</v>
       </c>
       <c r="L78" t="n">
-        <v>7089.461496445629</v>
+        <v>12362.78257178867</v>
       </c>
     </row>
     <row r="79">
@@ -3430,37 +3430,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25511.74777497615</v>
+        <v>38696.98786895063</v>
       </c>
       <c r="C79" t="n">
-        <v>2482.293481309826</v>
+        <v>2485.367834118656</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.06422638998506769</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9357736100149323</v>
       </c>
       <c r="F79" t="n">
-        <v>6.646553506081677</v>
+        <v>9.142677409110597</v>
       </c>
       <c r="G79" t="n">
-        <v>1245.01070756225</v>
+        <v>1888.469761938727</v>
       </c>
       <c r="H79" t="n">
-        <v>7478.867175201831</v>
+        <v>14456.82188681793</v>
       </c>
       <c r="I79" t="n">
-        <v>38250.14094569916</v>
+        <v>92231.3567266429</v>
       </c>
       <c r="J79" t="n">
-        <v>116.4803485377825</v>
+        <v>116.6246109666198</v>
       </c>
       <c r="K79" t="n">
-        <v>957.3619700544871</v>
+        <v>1332.438150907268</v>
       </c>
       <c r="L79" t="n">
-        <v>6007.707908059552</v>
+        <v>10909.46201271627</v>
       </c>
     </row>
     <row r="80">
@@ -3468,37 +3468,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23029.45429366632</v>
+        <v>36211.62003483198</v>
       </c>
       <c r="C80" t="n">
-        <v>2399.60305403108</v>
+        <v>2482.598420428355</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.06855806003819609</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9314419399618039</v>
       </c>
       <c r="F80" t="n">
-        <v>6.309076790659237</v>
+        <v>8.73586358560879</v>
       </c>
       <c r="G80" t="n">
-        <v>1080.645331810535</v>
+        <v>1699.211698589848</v>
       </c>
       <c r="H80" t="n">
-        <v>6233.85646763958</v>
+        <v>12568.3521248792</v>
       </c>
       <c r="I80" t="n">
-        <v>30771.27377049733</v>
+        <v>77774.53483982498</v>
       </c>
       <c r="J80" t="n">
-        <v>108.2693679292898</v>
+        <v>112.0140938937769</v>
       </c>
       <c r="K80" t="n">
-        <v>840.8816215167045</v>
+        <v>1215.813539940648</v>
       </c>
       <c r="L80" t="n">
-        <v>5050.345938005066</v>
+        <v>9577.023861809002</v>
       </c>
     </row>
     <row r="81">
@@ -3506,37 +3506,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20629.85123963524</v>
+        <v>33729.02161440362</v>
       </c>
       <c r="C81" t="n">
-        <v>2301.316943676923</v>
+        <v>2467.97759635038</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111552764823408</v>
+        <v>0.0731707437163388</v>
       </c>
       <c r="E81" t="n">
-        <v>0.888447235176592</v>
+        <v>0.9268292562836612</v>
       </c>
       <c r="F81" t="n">
-        <v>5.984771358014415</v>
+        <v>8.342057923595881</v>
       </c>
       <c r="G81" t="n">
-        <v>930.8126818885323</v>
+        <v>1521.843308596462</v>
       </c>
       <c r="H81" t="n">
-        <v>5153.211135829045</v>
+        <v>10869.14042628935</v>
       </c>
       <c r="I81" t="n">
-        <v>24537.41730285775</v>
+        <v>65206.18271494577</v>
       </c>
       <c r="J81" t="n">
-        <v>99.84108480515111</v>
+        <v>107.0715449132085</v>
       </c>
       <c r="K81" t="n">
-        <v>732.6122535874148</v>
+        <v>1103.799446046871</v>
       </c>
       <c r="L81" t="n">
-        <v>4209.464316488361</v>
+        <v>8361.210321868355</v>
       </c>
     </row>
     <row r="82">
@@ -3544,37 +3544,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18328.53429595831</v>
+        <v>31261.04401805325</v>
       </c>
       <c r="C82" t="n">
-        <v>2188.293602293479</v>
+        <v>2440.894227899693</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.078081020790287</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.921918979209713</v>
       </c>
       <c r="F82" t="n">
-        <v>5.673435113368591</v>
+        <v>7.961167869301456</v>
       </c>
       <c r="G82" t="n">
-        <v>795.1711093184375</v>
+        <v>1356.239328737236</v>
       </c>
       <c r="H82" t="n">
-        <v>4222.398453940514</v>
+        <v>9347.29711769289</v>
       </c>
       <c r="I82" t="n">
-        <v>19384.20616702871</v>
+        <v>54337.04228865643</v>
       </c>
       <c r="J82" t="n">
-        <v>91.28619548332085</v>
+        <v>101.8236069459009</v>
       </c>
       <c r="K82" t="n">
-        <v>632.7711687822637</v>
+        <v>996.7279011336623</v>
       </c>
       <c r="L82" t="n">
-        <v>3476.852062900946</v>
+        <v>7257.410875821485</v>
       </c>
     </row>
     <row r="83">
@@ -3582,37 +3582,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16140.24069366483</v>
+        <v>28820.14979015355</v>
       </c>
       <c r="C83" t="n">
-        <v>2061.811374165065</v>
+        <v>2400.897487561395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.08330621128075</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.91669378871925</v>
       </c>
       <c r="F83" t="n">
-        <v>5.374849372011494</v>
+        <v>7.593084140319267</v>
       </c>
       <c r="G83" t="n">
-        <v>673.3014096305612</v>
+        <v>1202.252670686056</v>
       </c>
       <c r="H83" t="n">
-        <v>3427.227344622076</v>
+        <v>7991.057788955655</v>
       </c>
       <c r="I83" t="n">
-        <v>15161.8077130882</v>
+        <v>44989.74517096354</v>
       </c>
       <c r="J83" t="n">
-        <v>82.70182791079094</v>
+        <v>96.30299518944092</v>
       </c>
       <c r="K83" t="n">
-        <v>541.4849732989428</v>
+        <v>894.9042941877614</v>
       </c>
       <c r="L83" t="n">
-        <v>2844.080894118682</v>
+        <v>6260.682974687822</v>
       </c>
     </row>
     <row r="84">
@@ -3620,37 +3620,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14078.42931949977</v>
+        <v>26419.25230259216</v>
       </c>
       <c r="C84" t="n">
-        <v>1923.568934174754</v>
+        <v>2347.730273423365</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.0888643723347543</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9111356276652457</v>
       </c>
       <c r="F84" t="n">
-        <v>5.088779857753482</v>
+        <v>7.237681031120874</v>
       </c>
       <c r="G84" t="n">
-        <v>564.7033736570564</v>
+        <v>1059.709188162536</v>
       </c>
       <c r="H84" t="n">
-        <v>2753.925934991514</v>
+        <v>6788.805118269598</v>
       </c>
       <c r="I84" t="n">
-        <v>11734.58036846612</v>
+        <v>36998.68738200788</v>
       </c>
       <c r="J84" t="n">
-        <v>74.1891837299752</v>
+        <v>90.54845371484214</v>
       </c>
       <c r="K84" t="n">
-        <v>458.7831453881519</v>
+        <v>798.6012989983204</v>
       </c>
       <c r="L84" t="n">
-        <v>2302.59592081974</v>
+        <v>5365.778680500061</v>
       </c>
     </row>
     <row r="85">
@@ -3658,37 +3658,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12154.86038532502</v>
+        <v>24071.5220291688</v>
       </c>
       <c r="C85" t="n">
-        <v>1775.665067657601</v>
+        <v>2281.361366016253</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.09477428819215505</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.9052257118078449</v>
       </c>
       <c r="F85" t="n">
-        <v>4.814977781902276</v>
+        <v>6.894816783079765</v>
       </c>
       <c r="G85" t="n">
-        <v>468.7948294018098</v>
+        <v>928.402688749135</v>
       </c>
       <c r="H85" t="n">
-        <v>2189.222561334458</v>
+        <v>5729.095930107062</v>
       </c>
       <c r="I85" t="n">
-        <v>8980.654433474605</v>
+        <v>30209.88226373828</v>
       </c>
       <c r="J85" t="n">
-        <v>65.85072334459772</v>
+        <v>84.60452305950206</v>
       </c>
       <c r="K85" t="n">
-        <v>384.5939616581767</v>
+        <v>708.0528452834784</v>
       </c>
       <c r="L85" t="n">
-        <v>1843.812775431588</v>
+        <v>4567.17738150174</v>
       </c>
     </row>
     <row r="86">
@@ -3696,37 +3696,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10379.19531766742</v>
+        <v>21790.16066315255</v>
       </c>
       <c r="C86" t="n">
-        <v>1620.555241030652</v>
+        <v>2202.014536122532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.101055452053007</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.898944547946993</v>
       </c>
       <c r="F86" t="n">
-        <v>4.553180993282295</v>
+        <v>6.564334010474077</v>
       </c>
       <c r="G86" t="n">
-        <v>384.9135356956039</v>
+        <v>808.0903699685123</v>
       </c>
       <c r="H86" t="n">
-        <v>1720.427731932648</v>
+        <v>4800.693241357927</v>
       </c>
       <c r="I86" t="n">
-        <v>6791.431872140145</v>
+        <v>24480.78633363122</v>
       </c>
       <c r="J86" t="n">
-        <v>57.78698011927372</v>
+        <v>78.52109388158625</v>
       </c>
       <c r="K86" t="n">
-        <v>318.7432383135789</v>
+        <v>623.4483222239762</v>
       </c>
       <c r="L86" t="n">
-        <v>1459.218813773412</v>
+        <v>3859.124536218263</v>
       </c>
     </row>
     <row r="87">
@@ -3734,37 +3734,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8758.640076636764</v>
+        <v>19588.14612703001</v>
       </c>
       <c r="C87" t="n">
-        <v>1460.983745923804</v>
+        <v>2110.192560587464</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.1077280385240528</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.8922719614759472</v>
       </c>
       <c r="F87" t="n">
-        <v>4.303115189006393</v>
+        <v>6.246060170589815</v>
       </c>
       <c r="G87" t="n">
-        <v>312.322188818807</v>
+        <v>698.4888772419832</v>
       </c>
       <c r="H87" t="n">
-        <v>1335.514196237044</v>
+        <v>3992.602871389415</v>
       </c>
       <c r="I87" t="n">
-        <v>5071.004140207498</v>
+        <v>19680.0930922733</v>
       </c>
       <c r="J87" t="n">
-        <v>50.09313412056417</v>
+        <v>72.352727573218</v>
       </c>
       <c r="K87" t="n">
-        <v>260.9562581943052</v>
+        <v>544.92722834239</v>
       </c>
       <c r="L87" t="n">
-        <v>1140.475575459832</v>
+        <v>3235.676213994287</v>
       </c>
     </row>
     <row r="88">
@@ -3772,37 +3772,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7297.65633071296</v>
+        <v>17477.95356644255</v>
       </c>
       <c r="C88" t="n">
-        <v>1299.892012264842</v>
+        <v>2006.693926511497</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.114812865183732</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.885187134816268</v>
       </c>
       <c r="F88" t="n">
-        <v>4.064495175020539</v>
+        <v>5.939808061529804</v>
       </c>
       <c r="G88" t="n">
-        <v>250.2166628205964</v>
+        <v>599.2711928517658</v>
       </c>
       <c r="H88" t="n">
-        <v>1023.192007418237</v>
+        <v>3294.113994147432</v>
       </c>
       <c r="I88" t="n">
-        <v>3735.489943970453</v>
+        <v>15687.49022088388</v>
       </c>
       <c r="J88" t="n">
-        <v>42.85551871253487</v>
+        <v>66.15773333979234</v>
       </c>
       <c r="K88" t="n">
-        <v>210.863124073741</v>
+        <v>472.5745007691719</v>
       </c>
       <c r="L88" t="n">
-        <v>879.5193172655273</v>
+        <v>2690.748985651896</v>
       </c>
     </row>
     <row r="89">
@@ -3810,37 +3810,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5997.764318448118</v>
+        <v>15471.25963993105</v>
       </c>
       <c r="C89" t="n">
-        <v>1140.305900309057</v>
+        <v>1892.619948948317</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.1223313416616381</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.8776686583383619</v>
       </c>
       <c r="F89" t="n">
-        <v>3.837026164861876</v>
+        <v>5.645376325039909</v>
       </c>
       <c r="G89" t="n">
-        <v>197.7374263072693</v>
+        <v>510.0645674792132</v>
       </c>
       <c r="H89" t="n">
-        <v>772.975344597641</v>
+        <v>2694.842801295666</v>
       </c>
       <c r="I89" t="n">
-        <v>2712.297936552216</v>
+        <v>12393.37622673645</v>
       </c>
       <c r="J89" t="n">
-        <v>36.1482696459086</v>
+        <v>59.99700276326468</v>
       </c>
       <c r="K89" t="n">
-        <v>168.0076053612062</v>
+        <v>406.4167674293797</v>
       </c>
       <c r="L89" t="n">
-        <v>668.6561931917862</v>
+        <v>2218.174484882724</v>
       </c>
     </row>
     <row r="90">
@@ -3848,37 +3848,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4857.45841813906</v>
+        <v>13578.63969098274</v>
       </c>
       <c r="C90" t="n">
-        <v>985.2072339483085</v>
+        <v>1769.37013725709</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.1303054044826072</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.8696945955173928</v>
       </c>
       <c r="F90" t="n">
-        <v>3.620405104569922</v>
+        <v>5.362549922634068</v>
       </c>
       <c r="G90" t="n">
-        <v>153.9838710341581</v>
+        <v>430.4496967359788</v>
       </c>
       <c r="H90" t="n">
-        <v>575.2379182903716</v>
+        <v>2184.778233816452</v>
       </c>
       <c r="I90" t="n">
-        <v>1939.322591954575</v>
+        <v>9698.533425440786</v>
       </c>
       <c r="J90" t="n">
-        <v>30.03035003776252</v>
+        <v>53.93261715634356</v>
       </c>
       <c r="K90" t="n">
-        <v>131.8593357152976</v>
+        <v>346.419764666115</v>
       </c>
       <c r="L90" t="n">
-        <v>500.6485878305801</v>
+        <v>1811.757717453344</v>
       </c>
     </row>
     <row r="91">
@@ -3886,37 +3886,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3872.251184190752</v>
+        <v>11809.26955372565</v>
       </c>
       <c r="C91" t="n">
-        <v>837.3972721569245</v>
+        <v>1638.623961719865</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.1387574357808526</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.8612425642191474</v>
       </c>
       <c r="F91" t="n">
-        <v>3.414322011206233</v>
+        <v>5.091100540001945</v>
       </c>
       <c r="G91" t="n">
-        <v>118.0310644181587</v>
+        <v>359.9613220128667</v>
       </c>
       <c r="H91" t="n">
-        <v>421.2540472562135</v>
+        <v>1754.328537080474</v>
       </c>
       <c r="I91" t="n">
-        <v>1364.084673664204</v>
+        <v>7513.755191624332</v>
       </c>
       <c r="J91" t="n">
-        <v>24.54318974437771</v>
+        <v>48.02625963729919</v>
       </c>
       <c r="K91" t="n">
-        <v>101.828985677535</v>
+        <v>292.4871475097714</v>
       </c>
       <c r="L91" t="n">
-        <v>368.7892521152825</v>
+        <v>1465.337952787229</v>
       </c>
     </row>
     <row r="92">
@@ -3924,37 +3924,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3034.853912033827</v>
+        <v>10170.64559200578</v>
       </c>
       <c r="C92" t="n">
-        <v>699.3618962305118</v>
+        <v>1502.30772685477</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.1477101638499327</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.8522898361500673</v>
       </c>
       <c r="F92" t="n">
-        <v>3.218461311847396</v>
+        <v>4.830786854647046</v>
       </c>
       <c r="G92" t="n">
-        <v>88.94821835000562</v>
+        <v>298.0903961443034</v>
       </c>
       <c r="H92" t="n">
-        <v>303.2229828380549</v>
+        <v>1394.367215067607</v>
       </c>
       <c r="I92" t="n">
-        <v>942.8306264079901</v>
+        <v>5759.426654543859</v>
       </c>
       <c r="J92" t="n">
-        <v>19.70915888143421</v>
+        <v>42.3374819774677</v>
       </c>
       <c r="K92" t="n">
-        <v>77.28579593315732</v>
+        <v>244.4608878724722</v>
       </c>
       <c r="L92" t="n">
-        <v>266.9602664377475</v>
+        <v>1172.850805277458</v>
       </c>
     </row>
     <row r="93">
@@ -3962,37 +3962,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2335.492015803316</v>
+        <v>8668.337865151012</v>
       </c>
       <c r="C93" t="n">
-        <v>573.149634367979</v>
+        <v>1362.546065745091</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.1571865433652376</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.8428134566347624</v>
       </c>
       <c r="F93" t="n">
-        <v>3.032503168988556</v>
+        <v>4.581354570893298</v>
       </c>
       <c r="G93" t="n">
-        <v>65.81797414741735</v>
+        <v>244.2878989305163</v>
       </c>
       <c r="H93" t="n">
-        <v>214.2747644880493</v>
+        <v>1096.276818923304</v>
       </c>
       <c r="I93" t="n">
-        <v>639.6076435699351</v>
+        <v>4365.059439476251</v>
       </c>
       <c r="J93" t="n">
-        <v>15.53104951192527</v>
+        <v>36.92189463350422</v>
       </c>
       <c r="K93" t="n">
-        <v>57.57663705172312</v>
+        <v>202.1234058950045</v>
       </c>
       <c r="L93" t="n">
-        <v>189.6744705045901</v>
+        <v>928.3899174049859</v>
       </c>
     </row>
     <row r="94">
@@ -4000,37 +4000,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1762.342381435336</v>
+        <v>7305.791799405921</v>
       </c>
       <c r="C94" t="n">
-        <v>460.2738783163605</v>
+        <v>1221.598619465112</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1672096130038153</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8327903869961847</v>
       </c>
       <c r="F94" t="n">
-        <v>2.856124776589779</v>
+        <v>4.34253607813713</v>
       </c>
       <c r="G94" t="n">
-        <v>47.75546409136063</v>
+        <v>197.9703158766076</v>
       </c>
       <c r="H94" t="n">
-        <v>148.4567903406319</v>
+        <v>851.9889199927876</v>
       </c>
       <c r="I94" t="n">
-        <v>425.3328790818858</v>
+        <v>3268.782620552948</v>
       </c>
       <c r="J94" t="n">
-        <v>11.99266696440796</v>
+        <v>31.82936529227945</v>
       </c>
       <c r="K94" t="n">
-        <v>42.04558753979785</v>
+        <v>165.2015112615003</v>
       </c>
       <c r="L94" t="n">
-        <v>132.097833452867</v>
+        <v>726.2665115099815</v>
       </c>
     </row>
     <row r="95">
@@ -4038,37 +4038,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1302.068503118976</v>
+        <v>6084.193179940809</v>
       </c>
       <c r="C95" t="n">
-        <v>361.6494815299076</v>
+        <v>1081.783712003765</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1778023281000241</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8221976718999759</v>
       </c>
       <c r="F95" t="n">
-        <v>2.6890016076632</v>
+        <v>4.114049511302456</v>
       </c>
       <c r="G95" t="n">
-        <v>33.92604850805418</v>
+        <v>158.5267076659971</v>
       </c>
       <c r="H95" t="n">
-        <v>100.7013262492713</v>
+        <v>654.01860411618</v>
       </c>
       <c r="I95" t="n">
-        <v>276.8760887412539</v>
+        <v>2416.793700560161</v>
       </c>
       <c r="J95" t="n">
-        <v>9.06053730298715</v>
+        <v>27.10232470100597</v>
       </c>
       <c r="K95" t="n">
-        <v>30.05292057538989</v>
+        <v>133.3721459692208</v>
       </c>
       <c r="L95" t="n">
-        <v>90.05224591306919</v>
+        <v>561.0650002484812</v>
       </c>
     </row>
     <row r="96">
@@ -4076,37 +4076,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>940.4190215890683</v>
+        <v>5002.409467937045</v>
       </c>
       <c r="C96" t="n">
-        <v>277.5712488175009</v>
+        <v>945.3921886226514</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1889873659247898</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8110126340752102</v>
       </c>
       <c r="F96" t="n">
-        <v>2.530808587643084</v>
+        <v>3.895596867783544</v>
       </c>
       <c r="G96" t="n">
-        <v>23.56066318552648</v>
+        <v>125.3272019009143</v>
       </c>
       <c r="H96" t="n">
-        <v>66.77527774121711</v>
+        <v>495.4918964501828</v>
       </c>
       <c r="I96" t="n">
-        <v>176.1747624919826</v>
+        <v>1762.77509644398</v>
       </c>
       <c r="J96" t="n">
-        <v>6.686629283619119</v>
+        <v>22.77428631344047</v>
       </c>
       <c r="K96" t="n">
-        <v>20.99238327240273</v>
+        <v>106.2698212682149</v>
       </c>
       <c r="L96" t="n">
-        <v>59.99932533767929</v>
+        <v>427.6928542792604</v>
       </c>
     </row>
     <row r="97">
@@ -4114,37 +4114,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>662.8477727715674</v>
+        <v>4057.017279314393</v>
       </c>
       <c r="C97" t="n">
-        <v>207.7377659439198</v>
+        <v>814.5959275197723</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.2007869011732267</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.7992130988267733</v>
       </c>
       <c r="F97" t="n">
-        <v>2.381221154354172</v>
+        <v>3.686860629681202</v>
       </c>
       <c r="G97" t="n">
-        <v>15.96785454861787</v>
+        <v>97.73263859128477</v>
       </c>
       <c r="H97" t="n">
-        <v>43.21461455569063</v>
+        <v>370.1646945492686</v>
       </c>
       <c r="I97" t="n">
-        <v>109.3994847507655</v>
+        <v>1267.283199993798</v>
       </c>
       <c r="J97" t="n">
-        <v>4.811881062387916</v>
+        <v>18.86868619829517</v>
       </c>
       <c r="K97" t="n">
-        <v>14.30575398878361</v>
+        <v>83.4955349547744</v>
       </c>
       <c r="L97" t="n">
-        <v>39.00694206527656</v>
+        <v>321.4230330110455</v>
       </c>
     </row>
     <row r="98">
@@ -4152,37 +4152,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>455.1100068276476</v>
+        <v>3242.421351794621</v>
       </c>
       <c r="C98" t="n">
-        <v>151.3189958809839</v>
+        <v>691.3566980641526</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.2132223493043245</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.7867776506956755</v>
       </c>
       <c r="F98" t="n">
-        <v>2.239916137960575</v>
+        <v>3.487497995665289</v>
       </c>
       <c r="G98" t="n">
-        <v>10.54182523436004</v>
+        <v>75.10500475486324</v>
       </c>
       <c r="H98" t="n">
-        <v>27.24676000707275</v>
+        <v>272.4320559579838</v>
       </c>
       <c r="I98" t="n">
-        <v>66.18487019507491</v>
+        <v>897.118505444529</v>
       </c>
       <c r="J98" t="n">
-        <v>3.370229989379167</v>
+        <v>15.39813995994654</v>
       </c>
       <c r="K98" t="n">
-        <v>9.493872926395699</v>
+        <v>64.62684875647923</v>
       </c>
       <c r="L98" t="n">
-        <v>24.70118807649294</v>
+        <v>237.9274980562711</v>
       </c>
     </row>
     <row r="99">
@@ -4190,37 +4190,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>303.7910109466637</v>
+        <v>2551.064653730468</v>
       </c>
       <c r="C99" t="n">
-        <v>107.0607804587832</v>
+        <v>577.3418386852203</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.2263140755139086</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.7736859244860914</v>
       </c>
       <c r="F99" t="n">
-        <v>2.106572337210453</v>
+        <v>3.29713123907843</v>
       </c>
       <c r="G99" t="n">
-        <v>6.766140428274715</v>
+        <v>56.8182107658835</v>
       </c>
       <c r="H99" t="n">
-        <v>16.70493477271272</v>
+        <v>197.3270512031205</v>
       </c>
       <c r="I99" t="n">
-        <v>38.93811018800216</v>
+        <v>624.6864494865451</v>
       </c>
       <c r="J99" t="n">
-        <v>2.29278405992476</v>
+        <v>12.36419311714936</v>
       </c>
       <c r="K99" t="n">
-        <v>6.123642937016532</v>
+        <v>49.2287087965327</v>
       </c>
       <c r="L99" t="n">
-        <v>15.20731515009725</v>
+        <v>173.3006492997918</v>
       </c>
     </row>
     <row r="100">
@@ -4228,37 +4228,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>196.7302304878805</v>
+        <v>1973.722815045248</v>
       </c>
       <c r="C100" t="n">
-        <v>73.41470632952579</v>
+        <v>473.8534801032815</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2400810673571802</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7599189326428198</v>
       </c>
       <c r="F100" t="n">
-        <v>1.980870546787545</v>
+        <v>3.115331687643639</v>
       </c>
       <c r="G100" t="n">
-        <v>4.213120198031696</v>
+        <v>42.26870185004631</v>
       </c>
       <c r="H100" t="n">
-        <v>9.938794344438001</v>
+        <v>140.508840437237</v>
       </c>
       <c r="I100" t="n">
-        <v>22.23317541528943</v>
+        <v>427.3593982834246</v>
       </c>
       <c r="J100" t="n">
-        <v>1.511758695487327</v>
+        <v>9.757610630732245</v>
       </c>
       <c r="K100" t="n">
-        <v>3.830858877091772</v>
+        <v>36.86451567938334</v>
       </c>
       <c r="L100" t="n">
-        <v>9.083672213080719</v>
+        <v>124.0719405032591</v>
       </c>
     </row>
     <row r="101">
@@ -4266,37 +4266,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>123.3155241583547</v>
+        <v>1499.869334941967</v>
       </c>
       <c r="C101" t="n">
-        <v>48.67861231106543</v>
+        <v>381.777594528648</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2545405693912796</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7454594306087204</v>
       </c>
       <c r="F101" t="n">
-        <v>1.862492524607978</v>
+        <v>2.941593011175718</v>
       </c>
       <c r="G101" t="n">
-        <v>2.539318418004689</v>
+        <v>30.88537191738921</v>
       </c>
       <c r="H101" t="n">
-        <v>5.725674146406307</v>
+        <v>98.24013858719073</v>
       </c>
       <c r="I101" t="n">
-        <v>12.29438107085144</v>
+        <v>286.8505578461876</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9638384764490608</v>
+        <v>7.559211686263157</v>
       </c>
       <c r="K101" t="n">
-        <v>2.319100181604445</v>
+        <v>27.10690504865109</v>
       </c>
       <c r="L101" t="n">
-        <v>5.252813335988944</v>
+        <v>87.20742482387577</v>
       </c>
     </row>
     <row r="102">
@@ -4304,37 +4304,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>74.6369118472893</v>
+        <v>1118.091740413319</v>
       </c>
       <c r="C102" t="n">
-        <v>31.13202726009181</v>
+        <v>301.5579278863569</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.2697076787052212</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.7302923212947788</v>
       </c>
       <c r="F102" t="n">
-        <v>1.751117787103016</v>
+        <v>2.775286234130789</v>
       </c>
       <c r="G102" t="n">
-        <v>1.477813848555447</v>
+        <v>22.13826131122646</v>
       </c>
       <c r="H102" t="n">
-        <v>3.18635572840162</v>
+        <v>67.35476666980152</v>
       </c>
       <c r="I102" t="n">
-        <v>6.568706924445127</v>
+        <v>188.6104192589969</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5927071044014157</v>
+        <v>5.741210643096629</v>
       </c>
       <c r="K102" t="n">
-        <v>1.355261705155385</v>
+        <v>19.54769336238794</v>
       </c>
       <c r="L102" t="n">
-        <v>2.933713154384499</v>
+        <v>60.1005197752247</v>
       </c>
     </row>
     <row r="103">
@@ -4342,37 +4342,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.50488458719749</v>
+        <v>816.5338125269617</v>
       </c>
       <c r="C103" t="n">
-        <v>19.15233344984342</v>
+        <v>233.1978932455229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.440234093977565</v>
+        <v>0.2855949008698556</v>
       </c>
       <c r="E103" t="n">
-        <v>0.559765906022435</v>
+        <v>0.7144050991301444</v>
       </c>
       <c r="F103" t="n">
-        <v>1.646415715674901</v>
+        <v>2.615582853311121</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8282677499788221</v>
+        <v>15.54557907923651</v>
       </c>
       <c r="H103" t="n">
-        <v>1.708541879846172</v>
+        <v>45.21650535857506</v>
       </c>
       <c r="I103" t="n">
-        <v>3.382351196043508</v>
+        <v>121.2556525891954</v>
       </c>
       <c r="J103" t="n">
-        <v>0.350607406233426</v>
+        <v>4.268978957787549</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7625546007539693</v>
+        <v>13.8064827192913</v>
       </c>
       <c r="L103" t="n">
-        <v>1.578451449229114</v>
+        <v>40.55282641283677</v>
       </c>
     </row>
     <row r="104">
@@ -4380,37 +4380,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.35255113735407</v>
+        <v>583.3359192814388</v>
       </c>
       <c r="C104" t="n">
-        <v>11.30122484292638</v>
+        <v>176.2909204127268</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.3022116667012112</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.6977883332987888</v>
       </c>
       <c r="F104" t="n">
-        <v>1.548027047272425</v>
+        <v>2.461321043042726</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4458038918231336</v>
+        <v>10.67869323378601</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8802741298673497</v>
+        <v>29.67092627933856</v>
       </c>
       <c r="I104" t="n">
-        <v>1.673809316197336</v>
+        <v>76.03914723062032</v>
       </c>
       <c r="J104" t="n">
-        <v>0.198926008145316</v>
+        <v>3.103101615743671</v>
       </c>
       <c r="K104" t="n">
-        <v>0.4119471945205432</v>
+        <v>9.537503761503757</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8158968484751444</v>
+        <v>26.74634369354547</v>
       </c>
     </row>
     <row r="105">
@@ -4418,37 +4418,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.05132629442769</v>
+        <v>407.044998868712</v>
       </c>
       <c r="C105" t="n">
-        <v>6.376325033478565</v>
+        <v>130.0768512148084</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.319563811314049</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.680436188685951</v>
       </c>
       <c r="F105" t="n">
-        <v>1.455520204328098</v>
+        <v>2.310767892565065</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2297315801461586</v>
+        <v>7.16487264751211</v>
       </c>
       <c r="H105" t="n">
-        <v>0.434470238044216</v>
+        <v>18.99223304555255</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7935351863299859</v>
+        <v>46.36822095128175</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1079203040086047</v>
+        <v>2.201571164248798</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2130211863752272</v>
+        <v>6.434402145760086</v>
       </c>
       <c r="L105" t="n">
-        <v>0.403949653954601</v>
+        <v>17.20883993204171</v>
       </c>
     </row>
     <row r="106">
@@ -4456,37 +4456,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.675001260949127</v>
+        <v>276.9681476539036</v>
       </c>
       <c r="C106" t="n">
-        <v>3.428533707867818</v>
+        <v>93.51913102143297</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.3376530182752042</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.6623469817247958</v>
       </c>
       <c r="F106" t="n">
-        <v>1.368285185287139</v>
+        <v>2.161186930786258</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1129754461319324</v>
+        <v>4.687729458358998</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2047386578980573</v>
+        <v>11.82736039804044</v>
       </c>
       <c r="I106" t="n">
-        <v>0.35906494828577</v>
+        <v>27.3759879057292</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05579660790172626</v>
+        <v>1.521948077377408</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1051008823666225</v>
+        <v>4.232830981511288</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1909284675793738</v>
+        <v>10.77443778628162</v>
       </c>
     </row>
     <row r="107">
@@ -4494,37 +4494,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.246467553081309</v>
+        <v>183.4490166324706</v>
       </c>
       <c r="C107" t="n">
-        <v>1.750590097204365</v>
+        <v>65.39521444660107</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.3564762332720298</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.6435237667279702</v>
       </c>
       <c r="F107" t="n">
-        <v>1.285264941629911</v>
+        <v>2.008031253438214</v>
       </c>
       <c r="G107" t="n">
-        <v>0.05283362876359334</v>
+        <v>2.985484094121629</v>
       </c>
       <c r="H107" t="n">
-        <v>0.09176321176612494</v>
+        <v>7.139630939681441</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1543262903877127</v>
+        <v>15.54862750768877</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02739368779019684</v>
+        <v>1.023321273428881</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04930427446489622</v>
+        <v>2.71088290413388</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08582758521275134</v>
+        <v>6.541606804770334</v>
       </c>
     </row>
     <row r="108">
@@ -4532,37 +4532,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.495877455876944</v>
+        <v>118.0538021858696</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8455297749699037</v>
+        <v>44.3911872956379</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.3760250536085766</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.6239749463914234</v>
       </c>
       <c r="F108" t="n">
-        <v>1.2042419775484</v>
+        <v>1.843396361420925</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02340787832864291</v>
+        <v>1.847336509380378</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0389295830025316</v>
+        <v>4.154146845559812</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06256307862158778</v>
+        <v>8.408996568007323</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01272218189885171</v>
+        <v>0.6679277018969587</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02191058667469939</v>
+        <v>1.687561630704999</v>
       </c>
       <c r="L108" t="n">
-        <v>0.03652331074785514</v>
+        <v>3.830723900636453</v>
       </c>
     </row>
     <row r="109">
@@ -4570,37 +4570,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6503476809070404</v>
+        <v>73.66261489023165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.384723779978961</v>
+        <v>29.19139685841386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.396285102041428</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.603714897958572</v>
       </c>
       <c r="F109" t="n">
-        <v>1.119840784590156</v>
+        <v>1.652965225911818</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00978539341715109</v>
+        <v>1.108357403276481</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01552170467388868</v>
+        <v>2.306810336179435</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02363349561905618</v>
+        <v>4.25484972244751</v>
       </c>
       <c r="J109" t="n">
-        <v>0.00556606645028734</v>
+        <v>0.422332237169031</v>
       </c>
       <c r="K109" t="n">
-        <v>0.009188404775847677</v>
+        <v>1.019633928808041</v>
       </c>
       <c r="L109" t="n">
-        <v>0.01461272407315575</v>
+        <v>2.143162269931453</v>
       </c>
     </row>
     <row r="110">
@@ -4608,37 +4608,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2656239009280795</v>
+        <v>44.47121803181779</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1641799678883173</v>
+        <v>18.55496626462636</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.4172353959666868</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.5827646040333132</v>
       </c>
       <c r="F110" t="n">
-        <v>1.017604460221203</v>
+        <v>1.409784286938264</v>
       </c>
       <c r="G110" t="n">
-        <v>0.003842965681588707</v>
+        <v>0.6433960352122005</v>
       </c>
       <c r="H110" t="n">
-        <v>0.005736311256737591</v>
+        <v>1.198452932902954</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0081117909451675</v>
+        <v>1.948039386268075</v>
       </c>
       <c r="J110" t="n">
-        <v>0.002283947847352051</v>
+        <v>0.2581226918414988</v>
       </c>
       <c r="K110" t="n">
-        <v>0.003622338325560337</v>
+        <v>0.5973016916390097</v>
       </c>
       <c r="L110" t="n">
-        <v>0.005424319297308071</v>
+        <v>1.123528341123412</v>
       </c>
     </row>
     <row r="111">
@@ -4646,37 +4646,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1014439330397622</v>
+        <v>25.91625176719143</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0653997502177954</v>
+        <v>11.37328814802948</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.4388477257512771</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.5611522742487229</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8553113699548578</v>
+        <v>1.061152274248723</v>
       </c>
       <c r="G111" t="n">
-        <v>0.001411211461867859</v>
+        <v>0.3605273420163861</v>
       </c>
       <c r="H111" t="n">
-        <v>0.001893345575148884</v>
+        <v>0.5550568976907536</v>
       </c>
       <c r="I111" t="n">
-        <v>0.00237547968842991</v>
+        <v>0.7495864533651211</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0008747999846688387</v>
+        <v>0.1521313501106191</v>
       </c>
       <c r="K111" t="n">
-        <v>0.001338390478208286</v>
+        <v>0.3391789997975109</v>
       </c>
       <c r="L111" t="n">
-        <v>0.001801980971747734</v>
+        <v>0.5262266494844028</v>
       </c>
     </row>
     <row r="112">
@@ -4684,10 +4684,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03604418282196675</v>
+        <v>14.54296361916196</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03604418282196675</v>
+        <v>14.54296361916196</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -4699,22 +4699,22 @@
         <v>0.5</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0004821341132810254</v>
+        <v>0.1945295556743675</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0004821341132810254</v>
+        <v>0.1945295556743675</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0004821341132810254</v>
+        <v>0.1945295556743675</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0004635904935394475</v>
+        <v>0.1870476496868918</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0004635904935394475</v>
+        <v>0.1870476496868918</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0004635904935394475</v>
+        <v>0.1870476496868918</v>
       </c>
     </row>
   </sheetData>
